--- a/subsetting_results/diagnosis/subsetting-diagnosis-CodeS-snails-Native-NVIDIA_RTX_2000.xlsx
+++ b/subsetting_results/diagnosis/subsetting-diagnosis-CodeS-snails-Native-NVIDIA_RTX_2000.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tblFieldDataSnakeDataCollection'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Trap_#'}</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Trap_#'}</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Stage'}</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATAMINNOWTRAPSURVEYS.LOCATIONID'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys', 'tblFieldDataWaterProperties'}</t>
+          <t>{'tblFieldDataWaterProperties', 'tblFieldDataTurtleTrapSurveys'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Salinity'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.pH'}</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tblFieldDataTurtleTrapSurveys'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Sex'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Comments'}</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'tlinkObservers', 'Observer_LU', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'Observer_LU', 'tlinkObservers'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.Agency/Title', 'tblFieldDataTurtleMeasurements.RecordID', 'Observer_LU.ObsInits'}</t>
+          <t>{'Observer_LU.Agency/Title', 'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.RecordID', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.EventID'}</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tlinkObservers.ObsInits', 'tlinkObservers.EventID'}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps', 'tblEvents', 'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tblEventDataHerps', 'tblEvents', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{'tblEvents.Year', 'Observer_LU.FirstName', 'tlinkObservers.ObsInits', 'tblEvents.EventID', 'tblEventDataHerps.ObsInits', 'Observer_LU.LastName', 'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'Observer_LU.ObsInits'}</t>
+          <t>{'Observer_LU.FirstName', 'Observer_LU.LastName', 'tblEvents.Year', 'tlinkObservers.EventID', 'tblEvents.EventID', 'tlinkObservers.ObsInits', 'tblEventDataHerps.ObsInits', 'Observer_LU.ObsInits', 'tblEventDataHerps.EventID'}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.ObsInits', 'tblEventDataHerps.EventID'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tblEventDataHerps.ObsInits'}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>{'OBSERVER_LU.FIRSTNAME', 'OBSERVER_LU.LASTNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>{'Observer_LU.FirstName', 'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'Observer_LU.LastName'}</t>
+          <t>{'Observer_LU.FirstName', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.LastName', 'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.EventID'}</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints', 'tblFieldDataTimeConstrainedSearches'}</t>
+          <t>{'tblFieldDataTimeConstrainedSearches', 'tblLocationsPoints'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMY', 'tblFieldDataTimeConstrainedSearches.LocationID'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.LocationID'}</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys', 'tluStage'}</t>
+          <t>{'tluStage', 'tblFieldDataMinnowTrapSurveys'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>{'tluStage.Description', 'tluStage.Stage', 'tblFieldDataMinnowTrapSurveys.Stage'}</t>
+          <t>{'tluStage.Stage', 'tluStage.Description', 'tblFieldDataMinnowTrapSurveys.Stage'}</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>{'tblAbundance_LU.AbundanceID', 'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceText'}</t>
+          <t>{'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceID', 'tblAbundance_LU.AbundanceText'}</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>{'TBLABUNDANCE_LU.ABUNDANCE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Type'}</t>
+          <t>{'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.LocationID'}</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATACOVERBOARD.TYPE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblLocations'}</t>
+          <t>{'tblLocations', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID'}</t>
+          <t>{'tblLocations.LocationID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.Type'}</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>{'TBLLOCATIONS.SITEID'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
+          <t>{'tblEventDataHerps', 'tblLocations', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'tblLocations.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblEventDataHerps.Weather', 'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.AirTemp', 'tblEventDataHerps.EventID'}</t>
+          <t>{'tblLocations.LocationID', 'tblEventDataHerps.Weather', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.LocationID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.EventID', 'tblEventDataHerps.EventID'}</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>{'TBLEVENTDATAHERPS.WEATHER', 'TBLFIELDDATACOVERBOARD.TYPE', 'TBLLOCATIONS.SITEID'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATASNAKEDATACOLLECTION.CAPTUREMETHOD'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.Notes', 'tblFieldDataSnakeDataCollection.CaptureMethod'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Notes'}</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATASNAKEDATACOLLECTION.NOTES'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblLocations', 'tblLocationsPoints'}</t>
+          <t>{'tblLocations', 'tblLocationsPoints', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblLocationsPoints.PointID', 'tblLocationsPoints.UTMY', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMX', 'tblFieldDataCoverBoard.Recapture', 'tblFieldDataCoverBoard.SnakeID'}</t>
+          <t>{'tblLocations.LocationID', 'tblLocationsPoints.PointID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.LocationID', 'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX', 'tblFieldDataCoverBoard.SnakeID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.Recapture', 'tblLocationsPoints.LocationID'}</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>{'TBLLOCATIONS.SITEID'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblEvents', 'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tblEvents', 'tlinkObservers', 'tblFieldDataCoverBoard', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'tlinkObservers.ObsInits', 'tlinkObservers.EventID', 'tblEvents.EventID', 'Observer_LU.ObsInits'}</t>
+          <t>{'tblEvents.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblFieldDataCoverBoard.EventID', 'tlinkObservers.EventID'}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.EventID', 'tlinkObservers.ObsInits', 'tlinkObservers.EventID', 'tblEventDataHerps.ObsInits', 'Observer_LU.ObsInits', 'tblEventDataHerps.AirTemp'}</t>
+          <t>{'tlinkObservers.ObsInits', 'tblEventDataHerps.ObsInits', 'tblEventDataHerps.AirTemp', 'Observer_LU.ObsInits', 'tblEventDataHerps.EventID', 'tlinkObservers.EventID'}</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>{'tluProject.Project', 'tluProject.Description'}</t>
+          <t>{'tluProject.Description', 'tluProject.Project'}</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>{'TLUPROJECT.PROJECT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>{'tluParkCode.PARKCODE', 'tluParkCode.PARKTYPE'}</t>
+          <t>{'tluParkCode.PARKTYPE', 'tluParkCode.PARKCODE'}</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>{'TLUPARKCODE.PARKCODE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>{'TLUEVIDENCECODE.EVIDENCE_CODE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>{'tluMicroHabitat.Description', 'tluMicroHabitat.Habitat'}</t>
+          <t>{'tluMicroHabitat.Habitat', 'tluMicroHabitat.Description'}</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>{'TLUMICROHABITAT.HABITAT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys', 'tblLocations'}</t>
+          <t>{'tblLocations', 'tblFieldDataTurtleTrapSurveys'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.LocationID', 'tblLocations.LocationID', 'tblFieldDataTurtleTrapSurveys.Trap_Type'}</t>
+          <t>{'tblLocations.LocationID', 'tblFieldDataTurtleTrapSurveys.Trap_Type', 'tblFieldDataTurtleTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATATURTLETRAPSURVEYS.TRAP_TYPE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Carapace_Width', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Sex'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Carapace_Width'}</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
+          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Event_ID', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.Event_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'tbl_Nests', 'tbl_Events', 'tbl_Deadwood'}</t>
+          <t>{'tbl_Nests', 'tbl_Deadwood', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tbl_Locations', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Event_ID', 'tbl_Locations.Plot_ID', 'tbl_Locations.X_Coord', 'tbl_Locations.Directions', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Events.Location_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Location_ID', 'tbl_Nests.Event_ID', 'tbl_Locations.Directions', 'tbl_Events.Event_ID', 'tbl_Locations.Plot_ID'}</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2461,17 +2461,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.DBH', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.DBH', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.GENUS'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
+          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos'}</t>
+          <t>{'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_PlantSpecies', 'tlu_Tree_Cond'}</t>
+          <t>{'tlu_Tree_Cond', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeTag', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.TreeTag', 'tbl_Overstory.TreeCond', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>{'TLU_TREE_COND.TREECOND_TEXT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tbl_Locations'}</t>
+          <t>{'tbl_Locations', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Directions', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID'}</t>
+          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Directions', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.Tree_Tag_ID'}</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Loc_Notes', 'tbl_Locations.Elevation'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_Locations.SiteDescription', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Event_ID', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text'}</t>
+          <t>{'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_Azimuth'}</t>
+          <t>{'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_DBH'}</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_WitnessTrees'}</t>
+          <t>{'tbl_WitnessTrees', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.ValidName', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Trail', 'tbl_Locations.Location_ID', 'tlu_Roads_and_Trails.ListedName'}</t>
+          <t>{'tbl_Events.Location_ID', 'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Trail', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tlu_Roads_and_Trails.ListedName'}</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tlu_PlaceNames', 'tbl_Locations'}</t>
+          <t>{'tbl_Locations', 'tlu_PlaceNames', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.State', 'tbl_Tree_Tags.Location_ID', 'tlu_PlaceNames.County', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.ID', 'tbl_Locations.PlaceNameID'}</t>
+          <t>{'tbl_Locations.Location_ID', 'tlu_PlaceNames.County', 'tlu_PlaceNames.ID', 'tlu_PlaceNames.State', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.PlaceNameID'}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.Name'}</t>
+          <t>{'tlu_PlaceNames.Name', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN'}</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>{'TLU_PLACENAMES.COUNTY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.TopoPosition', 'tbl_Locations.Topo_Position', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tlu_topo_position.ID'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Topo_Position', 'tlu_topo_position.TopoPosition', 'tlu_topo_position.ID'}</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>{'tlu_Live_Dead.Cond_Num', 'tlu_Live_Dead.Cond_Text'}</t>
+          <t>{'tlu_Live_Dead.Cond_Text', 'tlu_Live_Dead.Cond_Num'}</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>{'TLU_LIVE_DEAD.COND_TEXT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>{'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text'}</t>
+          <t>{'tlu_Presence.Pres_Text', 'tlu_Presence.Pres_Num'}</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Locations', 'tbl_Overstory', 'tlu_PlaceNames', 'tbl_Tree_Tags'}</t>
+          <t>{'tlu_PlaceNames', 'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Overstory', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3221,17 +3221,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tbl_Tree_Tags.Location_ID', 'tlu_PlaceNames.County', 'tbl_Tree_Tags.SpCode', 'tbl_Overstory.TreeTag', 'tlu_PlaceNames.ID', 'tbl_Locations.PlaceNameID'}</t>
+          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tlu_PlantSpecies.genus', 'tlu_PlaceNames.County', 'tlu_PlaceNames.ID', 'tlu_PlantSpecies.species', 'tbl_Locations.Location_ID', 'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.PlaceNameID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Overstory.SpCode', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>{'TLU_PLACENAMES.COUNTY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_PlantSpecies', 'tbl_Seedlings'}</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tbl_Overstory.Overstory_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.Seedlings_ID', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tbl_Overstory.Overstory_ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.SpCode', 'tbl_Seedlings.Seedlings_ID', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Seedlings.SpCode', 'tbl_Overstory.SpCode'}</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Xcoord'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text'}</t>
+          <t>{'tlu_Presence.Pres_Text', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Num'}</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
+          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
+          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Slope', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Notes', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Slope', 'tbl_Locations.Slope_shape', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.SLOPE_SHAPE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Saplings.Condition'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Ownership', 'VERTEBRATES.Notes'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes', 'VERTEBRATES.Ownership'}</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OWNERSHIP', 'VERTEBRATES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'Breeding_Codes'}</t>
+          <t>{'Breeding_Codes', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.BREED', 'Breeding_Codes.Definition', 'Breeding_Codes.Breed'}</t>
+          <t>{'Breeding_Codes.Definition', 'Breeding_Codes.Breed', 'VERTEBRATES.Common_Name', 'VERTEBRATES.BREED'}</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.CLASS'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Family', 'Invert_Family.Invert_Family'}</t>
+          <t>{'Invert_Family.Invert_Family', 'INVERTEBRATES.Family'}</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>{'ROADKILL.SPECIES'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'Roadkill'}</t>
+          <t>{'Roadkill', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>{'Roadkill.Date', 'VERTEBRATES.Date'}</t>
+          <t>{'VERTEBRATES.Date', 'Roadkill.Date'}</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species', 'Roadkill.Month', 'Roadkill.number_killed'}</t>
+          <t>{'Roadkill.number_killed', 'Roadkill.Species', 'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'INVERTEBRATES', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'HABITAT_CODES.Code', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Definition'}</t>
+          <t>{'VERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'HABITAT_CODES.Code', 'INVERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
+          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'INVERTEBRATES.Date', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Observer'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'VERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Date', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'VERTEBRATES.Observer', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'INVERTEBRATES', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Date', 'VERTEBRATES.Habitat', 'HABITAT_CODES.Code', 'VERTEBRATES.Date', 'HABITAT_CODES.Definition', 'VERTEBRATES.Observer', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Observer'}</t>
+          <t>{'INVERTEBRATES.Habitat', 'INVERTEBRATES.Date', 'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'VERTEBRATES.Observer', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.GENUS_SPECIES'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.UTME', 'VERTEBRATES.UTMN', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.UTME', 'VERTEBRATES.Common_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Scientific_Name'}</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'Roadkill'}</t>
+          <t>{'Roadkill', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'Roadkill.Species', 'VERTEBRATES.Species'}</t>
+          <t>{'VERTEBRATES.Species', 'Roadkill.Species', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>{'PASTE_ERRORS.SPECIES'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Order', 'INVERTEBRATES.Class'}</t>
+          <t>{'INVERTEBRATES.Class', 'INVERTEBRATES.Order'}</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.CLASS'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.LOCATION'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Survey', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Survey'}</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>{'ROADKILL.BIG_GAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>{'Class.Class', 'Class.Field2', 'VERTEBRATES.CLASS'}</t>
+          <t>{'Class.Field2', 'VERTEBRATES.CLASS', 'Class.Class'}</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>{'CLASS.FIELD2'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Habitat', 'HABITAT_CODES.Code', 'VERTEBRATES.Number', 'VERTEBRATES.Scientific_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Species'}</t>
+          <t>{'VERTEBRATES.Habitat', 'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Number', 'VERTEBRATES.Species', 'HABITAT_CODES.Code', 'HABITAT_CODES.Definition'}</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST', 'INVERTEBRATES'}</t>
+          <t>{'INVERTEBRATES', 'WILDLIFE_MASTERLIST'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Species'}</t>
+          <t>{'Roadkill.Species', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.HWY_Mile_Marker', 'Roadkill.Location'}</t>
+          <t>{'Roadkill.Location', 'Roadkill.HWY_Mile_Marker', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBS_TYPE', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.OBS_TYPE'}</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes', 'VERTEBRATES.Observer'}</t>
+          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes'}</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER', 'VERTEBRATES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Family', 'INVERTEBRATES.Order', 'INVERTEBRATES.Class', 'INVERTEBRATES.Location', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Order', 'INVERTEBRATES.Family', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.LOCATION'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.LOCATION', 'INVERTEBRATES.OBSERVER'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
+          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat'}</t>
+          <t>{'VERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name', 'VERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.COMMON_NAME', 'VERTEBRATES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Event_Details.Event_ID', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Locations', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Start_Date', 'tbl_Locations.Loc_Name', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Event_Details.Event_ID', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_Notes', 'tbl_Locations.Loc_Name', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat', 'tbl_MacroHabitat'}</t>
+          <t>{'tbl_MacroHabitat', 'tbl_MicroHabitat'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID'}</t>
+          <t>{'tbl_MicroHabitat.Event_ID', 'tbl_MacroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>{'TBL_MACROHABITAT.HYDROLOGY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Field', 'tbl_Edit_Log.Table'}</t>
+          <t>{'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Field', 'tbl_Edit_Log.Table'}</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat', 'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Locations', 'tbl_MicroHabitat', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5581,12 +5581,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Event_ID', 'tbl_Locations.Elevation', 'tbl_MicroHabitat.Litter', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_MicroHabitat.LightIndex', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.VegHeight', 'tbl_MicroHabitat.Evergreen', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Elevation', 'tbl_MicroHabitat.LightIndex', 'tbl_Locations.Location_ID', 'tbl_MicroHabitat.Evergreen', 'tbl_MicroHabitat.Event_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MicroHabitat.VegHeight', 'tbl_MicroHabitat.Litter'}</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.VegHeight', 'tbl_MicroHabitat.Litter'}</t>
+          <t>{'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.VegHeight'}</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW', 'tlu_Species_WHIS'}</t>
+          <t>{'tlu_Species_WHIS', 'tlu_Species_REDW'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW.Species', 'tlu_Species_WHIS.Species'}</t>
+          <t>{'tlu_Species_WHIS.Species', 'tlu_Species_REDW.Species'}</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}</t>
+          <t>{'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species'}</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.State_Code', 'tlu_Contacts.Position_Title', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.First_Name', 'tlu_Contacts.City', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.City', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.Position_Title', 'tlu_Contacts.State_Code'}</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME', 'TLU_CONTACTS.LAST_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME', 'TLU_CONTACTS.LAST_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>{'tlu_Enumerations.Enum_Description', 'tlu_Enumerations.Enum_Group', 'tlu_Enumerations.Enum_Code'}</t>
+          <t>{'tlu_Enumerations.Enum_Group', 'tlu_Enumerations.Enum_Description', 'tlu_Enumerations.Enum_Code'}</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>{'TLU_ENUMERATIONS.ENUM_GROUP', 'TLU_ENUMERATIONS.ENUM_CODE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'tbl_Db_Revisions.Revision_Contact_ID', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Desc', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Reason', 'tbl_Db_Revisions.Revision_Contact_ID', 'tbl_Db_Revisions.Revision_Desc'}</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6071,7 +6071,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME', 'TLU_CONTACTS.LAST_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Route', 'tbl_Sites.Length', 'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_Desc', 'tbl_Sites.Length', 'tbl_Sites.Route', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>{'TBL_SITES.SITE_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Sites.Site_Name', 'tbl_Locations.Y_Coord', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>{'TBL_SITES.SITE_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
+          <t>{'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'xref_Event_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'xref_Event_Contacts.Contact_ID', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID', 'tlu_Contacts.Position_Title', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID'}</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events', 'tbl_Sites'}</t>
+          <t>{'tbl_Locations', 'tbl_Sites', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Desc', 'tbl_Locations.Location_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name', 'tbl_Locations.Location_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -6461,17 +6461,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.EPE', 'tbl_Sites.Site_ID', 'tbl_Locations.HDOP', 'tbl_Locations.PDOP', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.EPE', 'tbl_Sites.Site_Name', 'tbl_Locations.PDOP', 'tbl_Locations.HDOP', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.EPE', 'tbl_Locations.HDOP', 'tbl_Locations.PDOP'}</t>
+          <t>{'tbl_Locations.PDOP', 'tbl_Locations.EPE', 'tbl_Locations.HDOP'}</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>{'TBL_SITES.SITE_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.COUNTY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.COUNTY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Loc_Type', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Loc_Type', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.LOC_TYPE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Subwatershed', 'tbl_Locations.Watershed', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Watershed', 'tbl_Events.Event_ID', 'tbl_Locations.Subwatershed'}</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.WATERSHED', 'TBL_LOCATIONS.SUBWATERSHED'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Subwatershed', 'tbl_Locations.Elevation'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Subwatershed'}</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.SUBWATERSHED'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6741,12 +6741,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Locations.Coord_System', 'tbl_Locations.Datum', 'tbl_Locations.Est_H_Error', 'tbl_Locations.X_Coord', 'tbl_Locations.Coord_Units', 'tbl_Locations.Loc_Type', 'tbl_Locations.Y_Coord', 'tbl_Locations.Accuracy_Notes'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Coord_System', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Type', 'tbl_Locations.Datum', 'tbl_Locations.Coord_Units', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Name', 'tbl_Locations.Est_H_Error'}</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Est_H_Error', 'tbl_Locations.Loc_Name', 'tbl_Locations.Coord_System', 'tbl_Locations.X_Coord'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Coord_System', 'tbl_Locations.Loc_Name', 'tbl_Locations.Est_H_Error'}</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_MacroHabitat'}</t>
+          <t>{'tbl_MacroHabitat', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.Aspect', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.Event_ID', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.MicroHab', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology'}</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6861,17 +6861,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.BareGround'}</t>
+          <t>{'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Rock'}</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.BareGround'}</t>
+          <t>{'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.Litter'}</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>{'TBL_MICROHABITAT.PHENOLOGY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>{'TBL_DEADWOOD.DECAY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.TRAIL'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.SiteDescription', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Event_Date'}</t>
+          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.SiteDescription', 'tbl_Events.Event_Date', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.Event_ID', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName', 'tbl_Nests.Event_ID', 'tlu_PlantSpecies.species', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7101,17 +7101,17 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tbl_Events.Event_ID', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.Event_ID'}</t>
+          <t>{'tbl_Overstory.DBH', 'tlu_PlantSpecies.species', 'tbl_Events.Event_ID', 'tbl_Overstory.SpCode', 'tbl_Overstory.Event_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Events.Event_ID', 'tbl_Overstory.DBH', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.SPECIES'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.spcode', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass2', 'tbl_Saplings.DClass4', 'tbl_Saplings.DClass3'}</t>
+          <t>{'tbl_Saplings.spcode', 'tbl_Saplings.DClass2', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass4', 'tbl_Saplings.DClass3'}</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>{'TBL_SAPLINGS.SPCODE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode'}</t>
+          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.GENUS'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7221,17 +7221,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.genus', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.Event_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Seedlings.Event_ID', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.GENUS'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.utmE'}</t>
+          <t>{'tlu_PlaceNames.State', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN'}</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>{'TLU_PLACENAMES.COUNTY', 'TLU_PLACENAMES.STATE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Xcoord'}</t>
+          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Tag', 'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag'}</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_Tree_Cond'}</t>
+          <t>{'tlu_Tree_Cond', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
+          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos'}</t>
+          <t>{'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>{'TLU_CAN_POS.CANPOS_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tlu_PlantSpecies', 'tlu_Can_Pos'}</t>
+          <t>{'tlu_Can_Pos', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.CanPos', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Can_Pos.CanPos_Num', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name', 'tlu_PlantSpecies.CommonName', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.COMMONNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7541,7 +7541,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.TopoPosition', 'tbl_Locations.Slope', 'tbl_Locations.Topo_Position', 'tbl_Locations.Elevation', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tlu_topo_position.ID', 'tbl_Locations.Aspect'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Slope', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect', 'tbl_Locations.Topo_Position', 'tlu_topo_position.TopoPosition', 'tlu_topo_position.ID', 'tbl_Locations.Slope_shape'}</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>{'TLU_TOPO_POSITION.TOPOPOSITION'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Nest_ID'}</t>
+          <t>{'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.SpCode', 'tbl_Nests.Cover', 'tbl_Nests.Nest_ID'}</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
+          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
+          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>{'TLU_DECAYSTAGE.DECAYSTAGE_DESCR'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{'tbl_Nests', 'tlu_R1_RestOfPlot', 'tlu_PlantSpecies'}</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies', 'tlu_R1_RestOfPlot'}</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode', 'tlu_R1_RestOfPlot.Pres_Text', 'tlu_PlantSpecies.SpeciesCode', 'tlu_R1_RestOfPlot.Pres_Num', 'tbl_Nests.R1'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.R1', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tlu_R1_RestOfPlot.Pres_Num', 'tlu_R1_RestOfPlot.Pres_Text'}</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>{'TLU_R1_RESTOFPLOT.PRES_TEXT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.SPECIESNOTES'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>{'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.Database_title', 'tsys_App_Releases.Author_email'}</t>
+          <t>{'tsys_App_Releases.Release_notes', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email'}</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Seedlings'}</t>
+          <t>{'tbl_Seedlings', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Events.Location_ID', 'tbl_Seedlings.Event_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Seedlings.Event_ID', 'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date'}</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Overstory', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7941,17 +7941,17 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.SpCode', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tlu_PlantSpecies.species', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.Event_ID'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.species', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Overstory.Event_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tbl_Overstory.DBH'}</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.SPECIES'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>{'TLU_ROADS_AND_TRAILS.VALIDNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.Name', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN'}</t>
+          <t>{'tlu_PlaceNames.Name', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmE'}</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Presence_First', 'tbl_Nests.Event_ID', 'tlu_Presence.Pres_Num', 'tlu_Presence.Pres_Text'}</t>
+          <t>{'tlu_Presence.Pres_Text', 'tbl_Nests.Presence_First', 'tlu_Presence.Pres_Num', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord'}</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Seedlings'}</t>
+          <t>{'tbl_Seedlings', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_Date', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tbl_Locations', 'tlu_PlantSpecies'}</t>
+          <t>{'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Elevation', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.Location_ID'}</t>
+          <t>{'tbl_Locations.Elevation', 'tlu_PlantSpecies.genus', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Coord_System', 'tbl_Locations.Coord_Units', 'tbl_Locations.Plot_ID', 'tbl_Locations.Datum', 'tbl_Locations.Eco_Notes'}</t>
+          <t>{'tbl_Locations.Coord_System', 'tbl_Locations.Plot_ID', 'tbl_Locations.Coord_Units', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Datum'}</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.PLOT_ID'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.OTHER_DISTURBANCE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -8861,12 +8861,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'VPICDECODE.Make', 'GV.CURBWT', 'VPICDECODE.Model', 'GV.MAKE', 'GV.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'GV.MODEL'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'GV.VEHNO', 'GV.MAKE', 'VPICDECODE.CASEID', 'GV.MODEL', 'GV.CURBWT', 'GV.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'VPICDECODE.CASEID', 'GV.CASEID', 'VPICDECODE.VEHNO'}</t>
+          <t>{'GV.CASEID', 'GV.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8941,12 +8941,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.LIGHTCOND'}</t>
+          <t>{'GV.LIGHTCOND', 'GV.CASEID'}</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.LIGHTCOND'}</t>
+          <t>{'GV.LIGHTCOND', 'GV.CASEID'}</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'GV.VEHNO', 'GV.CASEID', 'EDRPRECRASH.CASEID', 'GV.SPEEDLIMIT', 'EDRPRECRASH.PVALUE'}</t>
+          <t>{'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'GV.CASEID', 'GV.VEHNO', 'GV.SPEEDLIMIT', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'GV.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
+          <t>{'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'GV.VEHNO', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9181,12 +9181,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTMAG', 'INTRUSION.CASEID', 'INTRUSION.VEHNO'}</t>
+          <t>{'INTRUSION.VEHNO', 'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTMAG', 'INTRUSION.CASEID', 'INTRUSION.VEHNO'}</t>
+          <t>{'INTRUSION.VEHNO', 'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTCOMP', 'INTRUSION.VEHNO', 'INTRUSION.INTMAG', 'INTRUSION.CASEID', 'INTRUSION.INTDIRECT'}</t>
+          <t>{'INTRUSION.VEHNO', 'INTRUSION.INTCOMP', 'INTRUSION.INTMAG', 'INTRUSION.INTDIRECT', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTMAG', 'INTRUSION.INTCOMP', 'INTRUSION.VEHNO'}</t>
+          <t>{'INTRUSION.VEHNO', 'INTRUSION.INTCOMP', 'INTRUSION.INTMAG'}</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.INTDIRECT', 'INTRUSION.VEHNO'}</t>
+          <t>{'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'INJURY'}</t>
+          <t>{'INJURY', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>{'INJURY.AIS', 'VPICDECODE.VEHNO', 'INJURY.VEHNO', 'VPICDECODE.Make', 'INJURY.CASEID', 'VPICDECODE.CASEID'}</t>
+          <t>{'INJURY.VEHNO', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'INJURY.AIS', 'INJURY.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9566,12 +9566,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'INJURY'}</t>
+          <t>{'INJURY', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'INJURY'}</t>
+          <t>{'INJURY', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9581,12 +9581,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>{'INJURY.REGION', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'INJURY.CASEID', 'VPICDECODE.CASEID', 'INJURY.VEHNO'}</t>
+          <t>{'INJURY.REGION', 'INJURY.VEHNO', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'INJURY.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>{'INJURY.REGION', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'INJURY.CASEID', 'VPICDECODE.CASEID', 'INJURY.VEHNO'}</t>
+          <t>{'INJURY.REGION', 'INJURY.VEHNO', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'INJURY.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9781,12 +9781,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.NOTIFIED', 'EMSCARE.SCENEDEP', 'EMSCARE.ARRMEDICAL', 'EMSCARE.EMSTYPE', 'EMSCARE.CASEID', 'EMSCARE.SCENEARR'}</t>
+          <t>{'EMSCARE.SCENEDEP', 'EMSCARE.CASEID', 'EMSCARE.SCENEARR', 'EMSCARE.NOTIFIED', 'EMSCARE.ARRMEDICAL', 'EMSCARE.EMSTYPE'}</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.SCENEARR', 'EMSCARE.SCENEDEP', 'EMSCARE.ARRMEDICAL', 'EMSCARE.EMSTYPE'}</t>
+          <t>{'EMSCARE.SCENEDEP', 'EMSCARE.ARRMEDICAL', 'EMSCARE.SCENEARR', 'EMSCARE.EMSTYPE'}</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE', 'VPICDECODE.MODEL'}</t>
+          <t>{'VPICDECODE.MODEL'}</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'CDC.CDCPLANE', 'CDC.CASEID'}</t>
+          <t>{'CDC.CDCPLANE', 'CDC.VEHNO', 'CDC.CASEID'}</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>{'INTERIOR.CASEID', 'INTERIOR.GLAZINGCONT'}</t>
+          <t>{'INTERIOR.GLAZINGCONT', 'INTERIOR.CASEID'}</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10261,12 +10261,12 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.CASEID', 'GLAZING.GLAZIMP', 'GV.VIN', 'GLAZING.VEHNO', 'GLAZING.CASEID'}</t>
+          <t>{'GV.VIN', 'GLAZING.GLAZIMP', 'GLAZING.CASEID', 'GV.CASEID', 'GV.VEHNO', 'GLAZING.VEHNO'}</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.CASEID', 'GLAZING.GLAZIMP', 'GV.VIN', 'GLAZING.VEHNO'}</t>
+          <t>{'GV.VIN', 'GLAZING.GLAZIMP', 'GV.CASEID', 'GV.VEHNO', 'GLAZING.VEHNO'}</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -10421,12 +10421,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -10446,12 +10446,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'EDRPRECRASH'}</t>
+          <t>{'EDRPRECRASH', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'EDRPRECRASH'}</t>
+          <t>{'EDRPRECRASH', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10461,12 +10461,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'VPICDECODE.Make', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'VPICDECODE.Model', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'VPICDECODE.Make', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE', 'VPICDECODE.Model', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.PCODE', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>{'OCC.HEIGHT', 'OCC.AGE'}</t>
+          <t>{'OCC.AGE', 'OCC.HEIGHT'}</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>{'OCC.FETALMORT', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.FETALMORT'}</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'OCC.BELTAVAIL', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.BELTAVAIL'}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
+          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
+          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -10941,12 +10941,12 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'CDC.PDOF', 'CDC.CASEID'}</t>
+          <t>{'CDC.PDOF', 'CDC.VEHNO', 'CDC.CASEID'}</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>{'CDC.PDOF', 'CDC.VEHNO'}</t>
+          <t>{'CDC.VEHNO', 'CDC.PDOF'}</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'CDC.DAMAPILLAR', 'CDC.CASEID'}</t>
+          <t>{'CDC.DAMAPILLAR', 'CDC.VEHNO', 'CDC.CASEID'}</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -11101,12 +11101,12 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.DAMOTHPILLAR'}</t>
+          <t>{'CDC.DAMOTHPILLAR', 'CDC.VEHNO', 'CDC.CASEID'}</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.DAMOTHPILLAR'}</t>
+          <t>{'CDC.DAMOTHPILLAR', 'CDC.VEHNO', 'CDC.CASEID'}</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -11221,12 +11221,12 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>{'CDC.CMAX', 'CDC.C4', 'CDC.C2', 'CDC.C5', 'CDC.CASEID', 'CDC.C3', 'CDC.VEHNO', 'CDC.C6', 'CDC.C1'}</t>
+          <t>{'CDC.C6', 'CDC.C1', 'CDC.C4', 'CDC.CMAX', 'CDC.C2', 'CDC.VEHNO', 'CDC.C5', 'CDC.C3', 'CDC.CASEID'}</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>{'CDC.CMAX', 'CDC.C4', 'CDC.C2', 'CDC.C5', 'CDC.CASEID', 'CDC.C3', 'CDC.VEHNO', 'CDC.C6', 'CDC.C1'}</t>
+          <t>{'CDC.C6', 'CDC.C1', 'CDC.C4', 'CDC.CMAX', 'CDC.C2', 'CDC.VEHNO', 'CDC.C5', 'CDC.C3', 'CDC.CASEID'}</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>{'EDREVENT.VEHNO', 'EDREVENT.EDRSUMMNO', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.EDRSUMMNO', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'EDRPRECRASH'}</t>
+          <t>{'EDRPRECRASH', 'EDREVENT'}</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.CASEID', 'EDREVENT.EDREVENTNO', 'EDRPRECRASH.EDREVENTNO', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDRPRECRASH.CASEID', 'EDREVENT.EDREVENTNO', 'EDRPRECRASH.EDREVENTNO'}</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11326,7 +11326,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'EDREVENT'}</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -11341,12 +11341,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'VPICDECODE.Make', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.ModelYear', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'EDREVENT.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.ModelYear', 'VPICDECODE.CASEID', 'EDREVENT.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'VPICDECODE.Make', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.ModelYear', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'EDREVENT.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.ModelYear', 'VPICDECODE.CASEID', 'EDREVENT.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>{'INJURY.OCCNO', 'INJURY.VEHNO'}</t>
+          <t>{'INJURY.VEHNO', 'INJURY.OCCNO'}</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>{'FUEL.CASEID', 'FIRE.CASEID', 'FIRE.VEHNO', 'FUEL.FUELTYPE', 'FUEL.VEHNO'}</t>
+          <t>{'FUEL.CASEID', 'FIRE.VEHNO', 'FUEL.FUELTYPE', 'FIRE.CASEID', 'FUEL.VEHNO'}</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11501,12 +11501,12 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>{'EJECT.OCCNO', 'EJECT.VEHNO', 'EJECT.CASEID', 'OCC.VEHNO', 'OCC.SEX', 'OCC.OCCNO', 'OCC.CASEID'}</t>
+          <t>{'OCC.VEHNO', 'EJECT.VEHNO', 'OCC.CASEID', 'OCC.OCCNO', 'EJECT.CASEID', 'EJECT.OCCNO', 'OCC.SEX'}</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>{'EJECT.OCCNO', 'OCC.OCCNO', 'EJECT.VEHNO', 'OCC.VEHNO'}</t>
+          <t>{'EJECT.VEHNO', 'EJECT.OCCNO', 'OCC.OCCNO', 'OCC.VEHNO'}</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>{'AVOID.EQUIP', 'AVOID.AVAIL'}</t>
+          <t>{'AVOID.AVAIL', 'AVOID.EQUIP'}</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -11661,7 +11661,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>{'AVOID.EQUIP', 'AVOID.CASEID', 'AVOID.VEHNO', 'AVOID.AVAIL'}</t>
+          <t>{'AVOID.CASEID', 'AVOID.EQUIP', 'AVOID.VEHNO', 'AVOID.AVAIL'}</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.CASEID', 'TIREDAMAGE.VEHNO'}</t>
+          <t>{'TIREDAMAGE.VEHNO', 'TIREDAMAGE.CASEID'}</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -11781,12 +11781,12 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.GVWR', 'TIREPLAC.GAWRFRONT', 'TIREPLAC.GAWRREAR'}</t>
+          <t>{'TIREPLAC.GAWRFRONT', 'TIREPLAC.GVWR', 'TIREPLAC.GAWRREAR'}</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.GVWR', 'TIREPLAC.GAWRFRONT', 'TIREPLAC.GAWRREAR'}</t>
+          <t>{'TIREPLAC.GAWRFRONT', 'TIREPLAC.GVWR', 'TIREPLAC.GAWRREAR'}</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -11901,17 +11901,17 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.RECREAR1', 'VPICDECODE.Model', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'TIREPLAC.RECFRONT1', 'VPICDECODE.Model'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.RECREAR1', 'VPICDECODE.Model', 'TIREPLAC.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE', 'VPICDECODE.MODEL'}</t>
+          <t>{'VPICDECODE.MODEL', 'VPICDECODE.MAKE'}</t>
         </is>
       </c>
     </row>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -11941,17 +11941,17 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.Model', 'VPICDECODE.ModelYear', 'TIREPLAC.CASEID', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'TIREPLAC.RECFRONT1', 'TIREPLAC.RECRRPRESS1'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.RECREAR1', 'VPICDECODE.Model', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.ModelYear', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.Model', 'TIREPLAC.CASEID', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'TIREPLAC.RECFRONT1', 'TIREPLAC.RECRRPRESS1'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.RECREAR1', 'VPICDECODE.Model', 'TIREPLAC.VEHNO', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE', 'VPICDECODE.MODEL'}</t>
+          <t>{'VPICDECODE.MODEL', 'VPICDECODE.MAKE'}</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.CASEID', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIRE'}</t>
+          <t>{'TIRE', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -12021,17 +12021,17 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'TIRE.VEHNO', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'TIRE.TIREMODEL', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIRE.TIREMODEL', 'TIRE.VEHNO', 'VPICDECODE.Make', 'TIRE.CASEID'}</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'TIRE.CASEID', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIRE.VEHNO', 'VPICDECODE.Make', 'TIRE.CASEID'}</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE', 'VPICDECODE.MODEL'}</t>
+          <t>{'VPICDECODE.MODEL', 'VPICDECODE.MAKE'}</t>
         </is>
       </c>
     </row>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'TIRE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIRE.CASEID', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREDAMAGE'}</t>
+          <t>{'TIREDAMAGE', 'TIRE'}</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -12101,12 +12101,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.DAMAGE', 'TIRE.VEHNO', 'TIREDAMAGE.VEHNO', 'TIRE.CASEID', 'TIREDAMAGE.CASEID', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIREDAMAGE.VEHNO', 'TIREDAMAGE.DAMAGE', 'TIRE.VEHNO', 'TIREDAMAGE.CASEID', 'TIRE.TIREMODEL', 'TIRE.CASEID'}</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>{'TIRE.VEHNO', 'TIREDAMAGE.VEHNO'}</t>
+          <t>{'TIREDAMAGE.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREPLAC'}</t>
+          <t>{'TIREPLAC', 'TIRE'}</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -12141,12 +12141,12 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIRE.VEHNO', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIRE.CASEID', 'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'TIRE.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.CASEID', 'TIRE.TIRESIZE'}</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIRE.VEHNO', 'TIREPLAC.VEHNO', 'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIREPLAC', 'TIRE'}</t>
+          <t>{'TIRE', 'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -12181,12 +12181,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'TIRE.TIRELOC', 'TIREPLAC.CASEID', 'TIRE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'VPICDECODE.CASEID', 'TIRE.CASEID', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'TIRE.CASEID', 'TIRE.TIRESIZE', 'TIREPLAC.VEHNO', 'TIRE.VEHNO', 'VPICDECODE.CASEID', 'TIRE.TIRELOC', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIRE.VEHNO', 'TIRE.TIRELOC', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'TIREPLAC.RECFRONT1', 'VPICDECODE.Model'}</t>
+          <t>{'TIREPLAC.CASEID', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIRE.TIRELOC', 'VPICDECODE.Model', 'TIREPLAC.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'TIREPLAC', 'TIRE'}</t>
+          <t>{'TIRE', 'TIREPLAC', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -12221,12 +12221,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'TIRE.TIRELOC', 'TIREPLAC.CASEID', 'TIRE.VEHNO', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'VPICDECODE.CASEID', 'TIRE.CASEID', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.CASEID', 'VPICDECODE.VEHNO', 'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRESIZE', 'TIREPLAC.VEHNO', 'TIRE.VEHNO', 'VPICDECODE.CASEID', 'TIRE.TIRELOC', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'TIRE.VEHNO', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'VPICDECODE.CASEID', 'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC'}</t>
+          <t>{'TIREPLAC.CASEID', 'VPICDECODE.VEHNO', 'TIREPLAC.RECFRONT1', 'VPICDECODE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>{'DISTRACT', 'CHILDSEAT'}</t>
+          <t>{'CHILDSEAT', 'DISTRACT'}</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.OCCNO', 'DISTRACT.CASEID', 'CHILDSEAT.CASEID'}</t>
+          <t>{'CHILDSEAT.OCCNO', 'CHILDSEAT.CASEID', 'DISTRACT.CASEID'}</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'CHILDSEAT'}</t>
+          <t>{'CHILDSEAT', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -12341,12 +12341,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'CHILDSEAT.VEHNO', 'CHILDSEAT.CASEID', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'CHILDSEAT.VEHNO', 'CHILDSEAT.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.VEHNO', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'CHILDSEAT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'DISTRACT', 'CHILDSEAT'}</t>
+          <t>{'CHILDSEAT', 'VPICDECODE', 'DISTRACT'}</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -12381,12 +12381,12 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.CASEID', 'DISTRACT.VEHNO', 'CHILDSEAT.CASEID', 'VPICDECODE.Model', 'DISTRACT.DISTRACTN', 'VPICDECODE.VEHNO', 'DISTRACT.CASEID', 'CHILDSEAT.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'DISTRACT.DISTRACTN', 'VPICDECODE.Model', 'CHILDSEAT.CASEID', 'VPICDECODE.CASEID', 'DISTRACT.CASEID', 'CHILDSEAT.VEHNO', 'DISTRACT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'DISTRACT.VEHNO', 'VPICDECODE.Model', 'DISTRACT.DISTRACTN', 'DISTRACT.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'CHILDSEAT.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'DISTRACT.DISTRACTN', 'VPICDECODE.Model', 'VPICDECODE.CASEID', 'DISTRACT.CASEID', 'CHILDSEAT.VEHNO', 'DISTRACT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'DISTRACT'}</t>
+          <t>{'DISTRACT', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -12421,12 +12421,12 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>{'DISTRACT.VEHNO', 'DISTRACT.DISTRACTN', 'VPICDECODE.VEHNO', 'VPICDECODE.Make', 'VPICDECODE.CASEID', 'DISTRACT.CASEID'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'DISTRACT.CASEID', 'DISTRACT.DISTRACTN', 'DISTRACT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'DISTRACT.VEHNO', 'VPICDECODE.VEHNO', 'VPICDECODE.Make'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'DISTRACT.VEHNO', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>{'FIRE.CASEID', 'FIRE.VEHNO', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'FIRE.FIRE'}</t>
+          <t>{'FIRE.FIRE', 'VPICDECODE.VEHNO', 'FIRE.VEHNO', 'VPICDECODE.CASEID', 'FIRE.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.LEVEL', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INDICATOR'}</t>
+          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.LEVEL', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_LEVELS.SUBGROUP_NAME', 'ACCOUNTABILITY_LEVELS.ENTITY_NAME', 'ACCOUNTABILITY_LEVELS.INDICATOR'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.YEAR', 'Annual_EM_ELA.SUBGROUP_NAME'}</t>
+          <t>{'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.YEAR', 'Annual_EM_ELA.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.YEAR'}</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>{'EXPENDITURES_PER_PUPIL.ENTITY_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -12661,17 +12661,17 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.SUBGROUP_NAME', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT'}</t>
+          <t>{'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.ENTITY_CD', 'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_MATH.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
+          <t>{'Annual_EM_MATH.MEAN_SCORE', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>{'ANNUAL_EM_MATH.ASSESSMENT_NAME', 'EXPENDITURES_PER_PUPIL.ENTITY_NAME', 'ANNUAL_EM_MATH.ENTITY_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -12701,17 +12701,17 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.ENTITY_CD'}</t>
+          <t>{'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.RATE'}</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_CD'}</t>
+          <t>{'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_PARTICIPATION_RATE.ENTITY_NAME', 'ACC_HS_PARTICIPATION_RATE.SUBGROUP_NAME', 'ACC_HS_GRADUATION_RATE.ENTITY_NAME', 'ACC_HS_GRADUATION_RATE.SUBGROUP_NAME'}</t>
+          <t>{'ACC_HS_PARTICIPATION_RATE.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CHRONIC_ABSENTEEISM.SUBGROUP_NAME', 'ACC_EM_CHRONIC_ABSENTEEISM.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_CHRONIC_ABSENTEEISM.ENTITY_NAME', 'ACC_EM_CHRONIC_ABSENTEEISM.SUBGROUP_NAME'}</t>
         </is>
       </c>
     </row>
@@ -12781,17 +12781,17 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL3'}</t>
+          <t>{'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL2'}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.PER_LEVEL2'}</t>
+          <t>{'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL2'}</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>{'ANNUAL_REGENTS_EXAMS.SUBJECT', 'ANNUAL_REGENTS_EXAMS.ENTITY_NAME'}</t>
+          <t>{'ANNUAL_REGENTS_EXAMS.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'Accountability_Status'}</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -12821,12 +12821,12 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.YEAR', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.YEAR', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR', 'Accountability_Status.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME', 'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.ENTITY_NAME', 'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBJECT'}</t>
+          <t>{'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME', 'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -12981,17 +12981,17 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME', 'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{'INSTITUTION_GROUPING.GROUP_NAME'}</t>
         </is>
       </c>
     </row>
@@ -13021,17 +13021,17 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.SUCCESS_RATIO'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK'}</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_NYSESLAT_for_Participation'}</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -13141,12 +13141,12 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -13206,12 +13206,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation', 'Institution_Grouping', 'ACC_EM_ELP'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_EM_ELP'}</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation', 'Institution_Grouping', 'ACC_EM_ELP'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_NYSESLAT_for_Participation', 'ACC_EM_ELP'}</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -13221,12 +13221,12 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -13261,12 +13261,12 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR'}</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Participation_Rate'}</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -13301,12 +13301,12 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.MET_95_PERCENT'}</t>
+          <t>{'ACC_EM_Participation_Rate.MET_95_PERCENT', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Participation_Rate'}</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -13341,17 +13341,17 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.RATE', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD'}</t>
+          <t>{'ACC_EM_Participation_Rate.RATE', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME', 'ACC_EM_PARTICIPATION_RATE.RATE'}</t>
+          <t>{'INSTITUTION_GROUPING.GROUP_NAME'}</t>
         </is>
       </c>
     </row>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -13381,12 +13381,12 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -13461,17 +13461,17 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -13541,17 +13541,17 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.YEAR', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT'}</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_CHRONIC_ABSENTEEISM.SUBGROUP_NAME', 'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -13581,17 +13581,17 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX'}</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.ENTITY_NAME', 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME', 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBJECT'}</t>
+          <t>{'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBJECT', 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME', 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME', 'INSTITUTION_GROUPING.GROUP_NAME', 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBJECT', 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.WEIGHTED_INDEX'}</t>
+          <t>{'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBJECT', 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME'}</t>
         </is>
       </c>
     </row>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -13661,12 +13661,12 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -13701,12 +13701,12 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.PROGRESS_RATE'}</t>
+          <t>{'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.BENCHMARK'}</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.SUCCESS_RATIO'}</t>
+          <t>{'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -13726,7 +13726,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_HS_ELP'}</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -13741,12 +13741,12 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP', 'Expenditures_per_Pupil', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'Expenditures_per_Pupil', 'ACC_HS_ELP'}</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -13781,17 +13781,17 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.YEAR', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_CD', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.ENTITY_CD', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'ACC_HS_ELP.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP', 'ACC_HS_ELP.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_STATUS_BY_SUBGROUP.SUBGROUP_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_STATUS_BY_SUBGROUP.SUBGROUP_NAME', 'ACCOUNTABILITY_STATUS_BY_SUBGROUP.SCHOOL_TYPE'}</t>
+          <t>{'ACCOUNTABILITY_STATUS_BY_SUBGROUP.SCHOOL_TYPE'}</t>
         </is>
       </c>
     </row>
@@ -13901,17 +13901,17 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.ENTITY_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE'}</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_STATUS_BY_SUBGROUP.ENTITY_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -13941,12 +13941,12 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -13981,17 +13981,17 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME', 'ANNUAL_EM_SCIENCE.ASSESSMENT_NAME'}</t>
+          <t>{'INSTITUTION_GROUPING.GROUP_NAME'}</t>
         </is>
       </c>
     </row>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
+          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.SUBGROUP_NAME', 'ANNUAL_NYSESLAT.ENTITY_NAME', 'ANNUAL_NYSESLAT.SUBJECT'}</t>
+          <t>{'ANNUAL_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -14101,17 +14101,17 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
+          <t>{'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBJECT'}</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER'}</t>
+          <t>{'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER'}</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.SUBGROUP_NAME', 'ANNUAL_NYSESLAT.ENTITY_NAME', 'ANNUAL_NYSESLAT.SUBJECT'}</t>
+          <t>{'ANNUAL_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.SUBJECT'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_ENT', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.PER_ENT', 'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{'INSTITUTION_GROUPING.GROUP_NAME', 'ANNUAL_NYSESLAT.PER_ENT'}</t>
         </is>
       </c>
     </row>
@@ -14181,17 +14181,17 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.SUBJECT', 'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.YEAR'}</t>
+          <t>{'Annual_NYSESLAT.PER_COM', 'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.SUBJECT', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.ENTITY_CD'}</t>
+          <t>{'Annual_NYSESLAT.PER_COM', 'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.PER_ENT', 'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{'INSTITUTION_GROUPING.GROUP_NAME', 'ANNUAL_NYSESLAT.PER_ENT'}</t>
         </is>
       </c>
     </row>
@@ -14221,17 +14221,17 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
+          <t>{'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_EMER'}</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
+          <t>{'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.SUBGROUP_NAME', 'ANNUAL_NYSESLAT.ENTITY_NAME', 'ANNUAL_NYSESLAT.SUBJECT'}</t>
+          <t>{'ANNUAL_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.BOCES_NAME'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -14326,7 +14326,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil', 'BOCES_and_N/RC'}</t>
+          <t>{'BOCES_and_N/RC', 'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'BOCES_and_N/RC.BOCES_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.YEAR'}</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.NUM_TEACH'}</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>{'INEXPERIENCED_TEACHERS_AND_PRINCIPALS.ENTITY_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Inexperienced_Teachers_and_Principals.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -14541,7 +14541,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'BOCES_and_N/RC.DISTRICT_NAME'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'BOCES_and_N/RC.DISTRICT_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -14581,12 +14581,12 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW'}</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW'}</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -14621,7 +14621,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.OUT_4_YR_CNT'}</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>{'POSTSECONDARY_ENROLLMENT.SUBGROUP_NAME', 'POSTSECONDARY_ENROLLMENT.ENTITY_NAME'}</t>
+          <t>{'POSTSECONDARY_ENROLLMENT.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR'}</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>{'POSTSECONDARY_ENROLLMENT.SUBGROUP_NAME', 'POSTSECONDARY_ENROLLMENT.ENTITY_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'Teachers_Teaching_Out_of_Certification'}</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -14701,12 +14701,12 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Institution_Grouping.GROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -14741,7 +14741,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'BOCES_and_N/RC.COUNTY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
+          <t>{'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT'}</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -14821,17 +14821,17 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT'}</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT'}</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>{'TOTAL_COHORT_REGENTS_EXAMS.SUBGROUP_NAME', 'TOTAL_COHORT_REGENTS_EXAMS.ENTITY_NAME', 'TOTAL_COHORT_REGENTS_EXAMS.SUBJECT'}</t>
+          <t>{'TOTAL_COHORT_REGENTS_EXAMS.ENTITY_NAME', 'TOTAL_COHORT_REGENTS_EXAMS.SUBJECT'}</t>
         </is>
       </c>
     </row>
@@ -14846,7 +14846,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'Total_Cohort_Regents_Exams'}</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.COHORT'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.COHORT', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -14871,7 +14871,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME', 'TOTAL_COHORT_REGENTS_EXAMS.SUBGROUP_NAME', 'TOTAL_COHORT_REGENTS_EXAMS.SUBJECT'}</t>
+          <t>{'TOTAL_COHORT_REGENTS_EXAMS.SUBGROUP_NAME', 'TOTAL_COHORT_REGENTS_EXAMS.SUBJECT'}</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.YEAR'}</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -14951,7 +14951,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>{'ANNUAL_EM_SCIENCE.SUBGROUP_NAME', 'ANNUAL_EM_SCIENCE.ASSESSMENT_NAME', 'ANNUAL_EM_SCIENCE.ENTITY_NAME'}</t>
+          <t>{'ANNUAL_EM_SCIENCE.ENTITY_NAME'}</t>
         </is>
       </c>
     </row>
@@ -14981,17 +14981,17 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_CD', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_CD'}</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_CD', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>{'POSTSECONDARY_ENROLLMENT.SUBGROUP_NAME', 'INSTITUTION_GROUPING.GROUP_NAME'}</t>
+          <t>{'POSTSECONDARY_ENROLLMENT.SUBGROUP_NAME'}</t>
         </is>
       </c>
     </row>
@@ -15261,7 +15261,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.City', 'tlu_Contacts.Zip_Code'}</t>
+          <t>{'tlu_Contacts.Zip_Code', 'tlu_Contacts.City'}</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.CITY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Repeat_Sample', 'tbl_Events.Verified_by', 'tbl_Events.Station_ID', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Repeat_Sample', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID', 'tbl_Events.Station_ID', 'tbl_Events.Verified_by'}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>{'TBL_EVENTS.VERIFIED_BY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tlu_Species.Habitat'}</t>
+          <t>{'tlu_Species.Habitat', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID'}</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.HABITAT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15381,7 +15381,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tlu_Species.Habitat'}</t>
+          <t>{'tlu_Species.Habitat', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID'}</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Habitat'}</t>
+          <t>{'tbl_Habitat', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -15501,7 +15501,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Habitat.Understory_Comp', 'tbl_Habitat.Canopy_Comp', 'tbl_Events.Entered_by', 'tbl_Habitat.Event_ID'}</t>
+          <t>{'tbl_Events.Entered_by', 'tbl_Habitat.Canopy_Comp', 'tbl_Habitat.Understory_Comp', 'tbl_Events.Event_ID', 'tbl_Habitat.Event_ID'}</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -15511,7 +15511,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>{'TBL_EVENTS.ENTERED_BY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15526,7 +15526,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Gust', 'tbl_Events.Entered_by', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Rain', 'tbl_Events.Updated_by', 'tbl_Event_Details.Cloud', 'tbl_Events.Event_ID', 'tbl_Event_Details.Wind'}</t>
+          <t>{'tbl_Events.Updated_by', 'tbl_Event_Details.Cloud', 'tbl_Event_Details.Wind', 'tbl_Events.Event_ID', 'tbl_Event_Details.Gust', 'tbl_Event_Details.Rain', 'tbl_Events.Entered_by', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>{'TBL_EVENTS.ENTERED_BY', 'TBL_EVENTS.UPDATED_BY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15646,7 +15646,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Detections'}</t>
+          <t>{'tbl_Observations', 'tbl_Detections', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Observation_ID', 'tbl_Detections.Distance', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Detections.Observation_ID'}</t>
+          <t>{'tbl_Observations.Observation_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Detections.Distance', 'tbl_Observations.Species_ID', 'tbl_Detections.Observation_ID'}</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Family', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Species_ID'}</t>
+          <t>{'xref_Species_Alternate_Names.Species_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tlu_Species.Family'}</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.FAMILY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15781,7 +15781,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations_UTMs.X_final', 'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.Station_ID'}</t>
+          <t>{'tbl_Stations.Station', 'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations_UTMs.Station_ID'}</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Organization', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.Organization', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME', 'TLU_CONTACTS.LAST_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Island', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -15901,7 +15901,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.LOC_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Scientific_Name', 'tlu_Species.Family', 'tlu_Species.Habitat', 'tlu_Species.Common_Name'}</t>
+          <t>{'tlu_Species.Habitat', 'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tlu_Species.Family'}</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.HABITAT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>{'TBL_STATIONS_UTMS.DATUM'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Cloud', 'tbl_Event_Details.Event_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Transect', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Locations', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island', 'tbl_Transect.Location_ID'}</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Transect', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Locations', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island', 'tbl_Transect.Location_ID'}</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Observations', 'tbl_Event_Details', 'tlu_Species', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -16181,7 +16181,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tlu_Species.Family', 'tlu_Species.Species_ID', 'tlu_Species.Species_Code', 'tbl_Observations.Species_ID', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Rain', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_Code', 'tbl_Events.Event_ID', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Event_ID', 'tlu_Species.Family'}</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Observations', 'xref_Event_Contacts', 'tlu_Contacts', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -16221,17 +16221,17 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Species_ID', 'tlu_Contacts.First_Name', 'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Contact_ID', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'xref_Event_Contacts.Contact_ID', 'tbl_Observations.Event_ID', 'tlu_Contacts.Contact_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tlu_Species.Scientific_Name', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Event_ID'}</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Event_ID', 'xref_Event_Contacts.Contact_ID'}</t>
+          <t>{'xref_Event_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID'}</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME', 'TLU_CONTACTS.LAST_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Stations', 'tbl_Events'}</t>
+          <t>{'tbl_Observations', 'tbl_Stations', 'tlu_Species', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -16261,12 +16261,12 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Stations.Station', 'tbl_Observations.Event_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}</t>
+          <t>{'tbl_Stations.Station', 'tbl_Stations.Station_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Stations', 'tbl_Events'}</t>
+          <t>{'tbl_Observations', 'tbl_Stations', 'tlu_Species', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -16381,17 +16381,17 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Stations', 'tbl_Events'}</t>
+          <t>{'tbl_Observations', 'tbl_Stations', 'tlu_Species', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -16421,17 +16421,17 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Organization', 'tlu_Contacts.First_Name', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Organization', 'xref_Event_Contacts.Contact_ID'}</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -16471,7 +16471,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.ORGANIZATION'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Habitat', 'tbl_Events'}</t>
+          <t>{'tbl_Observations', 'tbl_Habitat', 'tlu_Species', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -16501,12 +16501,12 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Canopy_Height', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Habitat.Event_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Habitat.Canopy_Height', 'tbl_Events.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Habitat.Event_ID', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -16526,12 +16526,12 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Sites', 'tbl_Transect', 'tlu_Contacts', 'tbl_Stations', 'xref_Species_Alternate_Names', 'tbl_Locations', 'xref_Event_Contacts'}</t>
+          <t>{'tlu_Contacts', 'tbl_Locations', 'xref_Event_Contacts', 'tlu_Species', 'tbl_Stations', 'xref_Species_Alternate_Names', 'tbl_Events', 'tbl_Observations', 'tbl_Sites', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>{'tbl_Transect', 'tlu_Contacts', 'tbl_Stations', 'xref_Species_Alternate_Names', 'tbl_Sites', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Stations', 'tbl_Sites', 'xref_Species_Alternate_Names', 'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -16541,12 +16541,12 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tlu_Species.Family', 'tbl_Transect.Transect_Type', 'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tbl_Events.Event_Notes', 'tbl_Locations.Island', 'tbl_Stations.Transect_ID', 'tlu_Contacts.Contact_ID', 'tbl_Events.Event_ID', 'tbl_Sites.Site_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Observations.Species_ID', 'tbl_Locations.Site_ID', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Station_ID', 'tbl_Transect.Transect', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name', 'tbl_Stations.Lat_final', 'tbl_Transect.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Events.Event_Notes', 'tbl_Stations.Station', 'tbl_Stations.Station_ID', 'xref_Species_Alternate_Names.Species_ID', 'tlu_Contacts.Last_Name', 'tbl_Stations.Transect_ID', 'tbl_Stations.Lat_final', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Site_ID', 'tbl_Transect.Transect_Type', 'tbl_Events.Event_ID', 'tbl_Locations.Island', 'xref_Event_Contacts.Contact_ID', 'tbl_Sites.Site_Name', 'tbl_Observations.Event_ID', 'tlu_Contacts.Contact_ID', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Station_ID', 'tlu_Species.Family', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Sites.Site_ID', 'tbl_Transect.Location_ID', 'tbl_Transect.Transect', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tlu_Species.Scientific_Name'}</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Transect.Transect_Type', 'tbl_Stations.Transect_ID', 'tlu_Contacts.Contact_ID', 'tbl_Sites.Site_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Transect.Transect', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name', 'tbl_Stations.Lat_final', 'tbl_Transect.Location_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Stations.Station', 'tbl_Stations.Station_ID', 'xref_Species_Alternate_Names.Species_ID', 'tlu_Contacts.Last_Name', 'tbl_Stations.Transect_ID', 'tbl_Stations.Lat_final', 'tbl_Transect.Transect_ID', 'tbl_Transect.Transect_Type', 'xref_Event_Contacts.Contact_ID', 'tbl_Sites.Site_Name', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Sites.Site_ID', 'tbl_Transect.Location_ID', 'tbl_Transect.Transect'}</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -16566,32 +16566,32 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Transect', 'tlu_Contacts', 'tbl_Stations', 'tbl_Locations', 'xref_Event_Contacts'}</t>
+          <t>{'tlu_Contacts', 'tbl_Locations', 'xref_Event_Contacts', 'tlu_Species', 'tbl_Stations', 'tbl_Events', 'tbl_Observations', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>{'tbl_Transect', 'tlu_Contacts', 'tbl_Stations', 'tbl_Events', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Stations', 'tbl_Events', 'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Transect', 'tlu_Contacts', 'tbl_Stations', 'xref_Event_Contacts'}</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Stations', 'tbl_Events', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Locations.Island', 'tbl_Stations.Transect_ID', 'tlu_Contacts.Contact_ID', 'tbl_Events.Event_ID', 'tbl_Transect.Location_ID', 'tbl_Observations.Species_ID', 'tbl_Locations.Location_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Island', 'tbl_Transect.Location_ID', 'tbl_Observations.Event_ID', 'tlu_Contacts.Contact_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Stations.Transect_ID', 'tlu_Contacts.Contact_ID', 'tbl_Events.Event_ID', 'tbl_Transect.Location_ID', 'xref_Event_Contacts.Contact_ID'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Events.Event_ID', 'tbl_Transect.Location_ID', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.COMMON_NAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -16661,12 +16661,12 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>{'OUDP.Code', 'OPEX.PayeeState', 'OPEX.PayeeCity', 'OUDP.Name', 'OPEX.PayeeName', 'OPEX.PayeeStree', 'OPEX.PayCountry', 'OPEX.Department', 'OPEX.PayeeZip'}</t>
+          <t>{'OPEX.PayCountry', 'OPEX.PayeeZip', 'OPEX.PayeeStree', 'OPEX.PayeeState', 'OPEX.Department', 'OUDP.Name', 'OPEX.PayeeName', 'OPEX.PayeeCity', 'OUDP.Code'}</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>{'OUDP.Code', 'OPEX.PayeeState', 'OPEX.PayeeCity', 'OUDP.Name', 'OPEX.PayeeName', 'OPEX.PayeeStree', 'OPEX.PayCountry', 'OPEX.Department', 'OPEX.PayeeZip'}</t>
+          <t>{'OPEX.PayCountry', 'OPEX.PayeeZip', 'OPEX.PayeeStree', 'OPEX.PayeeState', 'OPEX.Department', 'OUDP.Name', 'OPEX.PayeeName', 'OPEX.PayeeCity', 'OUDP.Code'}</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -16701,12 +16701,12 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>{'CHO1.CheckKey', 'OCHO.CheckKey', 'OCHO.AcctNum'}</t>
+          <t>{'OCHO.CheckKey', 'OCHO.AcctNum', 'CHO1.CheckKey'}</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>{'CHO1.CheckKey', 'OCHO.CheckKey', 'OCHO.AcctNum'}</t>
+          <t>{'OCHO.CheckKey', 'OCHO.AcctNum', 'CHO1.CheckKey'}</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -16741,12 +16741,12 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>{'OCHO.DdctPrcnt', 'OCHO.AcctNum', 'OCHO.Deduction'}</t>
+          <t>{'OCHO.Deduction', 'OCHO.AcctNum', 'OCHO.DdctPrcnt'}</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>{'OCHO.DdctPrcnt', 'OCHO.AcctNum', 'OCHO.Deduction'}</t>
+          <t>{'OCHO.Deduction', 'OCHO.AcctNum', 'OCHO.DdctPrcnt'}</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -16781,12 +16781,12 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>{'ORCT.DocCurr', 'ORCT.CardName', 'ORCT.Address', 'ORCT.TrsfrSumFC', 'ORCT.CardCode', 'ORCT.CreateDate'}</t>
+          <t>{'ORCT.Address', 'ORCT.CardCode', 'ORCT.TrsfrSumFC', 'ORCT.CardName', 'ORCT.DocCurr', 'ORCT.CreateDate'}</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>{'ORCT.DocCurr', 'ORCT.CardName', 'ORCT.Address', 'ORCT.TrsfrSumFC', 'ORCT.CardCode', 'ORCT.CreateDate'}</t>
+          <t>{'ORCT.Address', 'ORCT.CardCode', 'ORCT.TrsfrSumFC', 'ORCT.CardName', 'ORCT.DocCurr', 'ORCT.CreateDate'}</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>{'RCT1', 'ORCT'}</t>
+          <t>{'ORCT', 'RCT1'}</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -16821,17 +16821,17 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>{'RCT1.AcctNum', 'ORCT.WTOnhldPst', 'ORCT.CheckSumFC', 'RCT1.DocNum', 'ORCT.DocNum', 'RCT1.CountryCod'}</t>
+          <t>{'ORCT.WTOnhldPst', 'ORCT.CheckSumFC', 'RCT1.AcctNum', 'ORCT.DocNum', 'RCT1.CountryCod', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>{'RCT1.AcctNum', 'ORCT.DocNum', 'ORCT.CheckSumFC', 'ORCT.WTOnhldPst'}</t>
+          <t>{'ORCT.WTOnhldPst', 'ORCT.DocNum', 'ORCT.CheckSumFC', 'RCT1.AcctNum'}</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>{'RCT1.COUNTRYCOD'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -16901,12 +16901,12 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>{'RCT3.DocNum', 'ORCT.DocNum', 'RCT3.FirstSum'}</t>
+          <t>{'ORCT.DocNum', 'RCT3.DocNum', 'RCT3.FirstSum'}</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>{'RCT3.DocNum', 'ORCT.DocNum', 'RCT3.FirstSum'}</t>
+          <t>{'ORCT.DocNum', 'RCT3.DocNum', 'RCT3.FirstSum'}</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -16941,12 +16941,12 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>{'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.DeposDate', 'OCRH.RctAbs'}</t>
+          <t>{'OCRH.RctAbs', 'OCRH.DepNum', 'OCRH.CardCode', 'OCRH.DeposDate'}</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>{'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.DeposDate', 'OCRH.RctAbs'}</t>
+          <t>{'OCRH.RctAbs', 'OCRH.DepNum', 'OCRH.CardCode', 'OCRH.DeposDate'}</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -16981,12 +16981,12 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>{'OCTG.VATFirst', 'OCTG.ExtraDays', 'OCTG.PymntGroup', 'OCTG.InstNum'}</t>
+          <t>{'OCTG.InstNum', 'OCTG.VATFirst', 'OCTG.PymntGroup', 'OCTG.ExtraDays'}</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>{'OCTG.VATFirst', 'OCTG.ExtraDays', 'OCTG.PymntGroup', 'OCTG.InstNum'}</t>
+          <t>{'OCTG.InstNum', 'OCTG.VATFirst', 'OCTG.PymntGroup', 'OCTG.ExtraDays'}</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -17021,12 +17021,12 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>{'OCRD.GroupCode', 'OCRG.GroupName', 'OCRG.GroupCode'}</t>
+          <t>{'OCRG.GroupName', 'OCRD.GroupCode', 'OCRG.GroupCode'}</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>{'OCRD.GroupCode', 'OCRG.GroupName', 'OCRG.GroupCode'}</t>
+          <t>{'OCRG.GroupName', 'OCRD.GroupCode', 'OCRG.GroupCode'}</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -17061,12 +17061,12 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>{'OCPR.E_MailL', 'OCPR.Name', 'OCPR.Address', 'OCPR.Position', 'OCPR.Cellolar'}</t>
+          <t>{'OCPR.Cellolar', 'OCPR.Name', 'OCPR.Position', 'OCPR.Address', 'OCPR.E_MailL'}</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>{'OCPR.E_MailL', 'OCPR.Name', 'OCPR.Address', 'OCPR.Position', 'OCPR.Cellolar'}</t>
+          <t>{'OCPR.Cellolar', 'OCPR.Name', 'OCPR.Position', 'OCPR.Address', 'OCPR.E_MailL'}</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -17141,12 +17141,12 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupCode', 'OSLP.GroupCode', 'OCOG.GroupName', 'OSLP.SlpName'}</t>
+          <t>{'OSLP.GroupCode', 'OSLP.SlpName', 'OCOG.GroupCode', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupCode', 'OSLP.GroupCode', 'OCOG.GroupName', 'OSLP.SlpName'}</t>
+          <t>{'OSLP.GroupCode', 'OSLP.SlpName', 'OCOG.GroupCode', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -17181,12 +17181,12 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>{'OSLP.Email', 'OSLP.GroupCode', 'OCOG.GroupCode', 'OSLP.Mobil', 'OCOG.GroupName', 'OSLP.SlpName'}</t>
+          <t>{'OSLP.Mobil', 'OCOG.GroupCode', 'OSLP.GroupCode', 'OSLP.SlpName', 'OSLP.Email', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>{'OSLP.Email', 'OSLP.GroupCode', 'OCOG.GroupCode', 'OSLP.Mobil', 'OCOG.GroupName', 'OSLP.SlpName'}</t>
+          <t>{'OSLP.Mobil', 'OCOG.GroupCode', 'OSLP.GroupCode', 'OSLP.SlpName', 'OSLP.Email', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -17221,12 +17221,12 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>{'OCRD.PymCode', 'CRD1.TaxCode', 'CRD1.CardCode', 'OCRD.CDPNum', 'OCRD.CardCode'}</t>
+          <t>{'OCRD.CDPNum', 'OCRD.PymCode', 'CRD1.TaxCode', 'CRD1.CardCode', 'OCRD.CardCode'}</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>{'OCRD.PymCode', 'CRD1.TaxCode', 'CRD1.CardCode', 'OCRD.CDPNum', 'OCRD.CardCode'}</t>
+          <t>{'OCRD.CDPNum', 'OCRD.PymCode', 'CRD1.TaxCode', 'CRD1.CardCode', 'OCRD.CardCode'}</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -17261,12 +17261,12 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>{'OCLG.CntctDate', 'OCLG.CreateDate', 'OCLG.Details', 'OCLG.ClgCode', 'OCLG.CntctTime'}</t>
+          <t>{'OCLG.CntctTime', 'OCLG.CreateDate', 'OCLG.CntctDate', 'OCLG.ClgCode', 'OCLG.Details'}</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>{'OCLG.CntctDate', 'OCLG.CreateDate', 'OCLG.Details', 'OCLG.ClgCode', 'OCLG.CntctTime'}</t>
+          <t>{'OCLG.CntctTime', 'OCLG.CreateDate', 'OCLG.CntctDate', 'OCLG.ClgCode', 'OCLG.Details'}</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -17286,12 +17286,12 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRB'}</t>
+          <t>{'OCRB', 'OCRD'}</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>{'OCRD', 'OCRB'}</t>
+          <t>{'OCRB', 'OCRD'}</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -17301,12 +17301,12 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>{'OCRD.BankCode', 'OCRB.Country', 'OCRB.BankCode', 'OCRB.Account', 'OCRD.Country', 'OCRD.City', 'OCRB.CardCode', 'OCRB.City', 'OCRB.Branch', 'OCRD.CardName', 'OCRD.CardCode'}</t>
+          <t>{'OCRB.Country', 'OCRD.BankCode', 'OCRB.City', 'OCRB.CardCode', 'OCRB.BankCode', 'OCRD.CardName', 'OCRD.CardCode', 'OCRD.Country', 'OCRB.Account', 'OCRB.Branch', 'OCRD.City'}</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>{'OCRD.BankCode', 'OCRB.Country', 'OCRB.BankCode', 'OCRB.Account', 'OCRD.Country', 'OCRD.City', 'OCRB.CardCode', 'OCRB.City', 'OCRB.Branch', 'OCRD.CardName', 'OCRD.CardCode'}</t>
+          <t>{'OCRB.Country', 'OCRD.BankCode', 'OCRB.City', 'OCRB.CardCode', 'OCRB.BankCode', 'OCRD.CardName', 'OCRD.CardCode', 'OCRD.Country', 'OCRB.Account', 'OCRB.Branch', 'OCRD.City'}</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -17341,12 +17341,12 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>{'OCRD.PymCode', 'OCRD.Currency', 'OCRD.Balance'}</t>
+          <t>{'OCRD.PymCode', 'OCRD.Balance', 'OCRD.Currency'}</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>{'OCRD.PymCode', 'OCRD.Currency', 'OCRD.Balance'}</t>
+          <t>{'OCRD.PymCode', 'OCRD.Balance', 'OCRD.Currency'}</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -17381,17 +17381,17 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>{'TGG1.E_Mail', 'TGG1.LicTradNum', 'OTGG.TargetCode', 'TGG1.TargetCode', 'OTGG.TargetType', 'TGG1.Position'}</t>
+          <t>{'TGG1.TargetCode', 'OTGG.TargetCode', 'TGG1.LicTradNum', 'OTGG.TargetType', 'TGG1.Position', 'TGG1.E_Mail'}</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>{'TGG1.E_Mail', 'TGG1.LicTradNum', 'OTGG.TargetCode', 'TGG1.TargetCode', 'OTGG.TargetType', 'TGG1.Position'}</t>
+          <t>{'TGG1.TargetCode', 'OTGG.TargetCode', 'TGG1.LicTradNum', 'OTGG.TargetType', 'TGG1.Position', 'TGG1.E_Mail'}</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>{'OTGG.TARGETTYPE', 'TGG1.POSITION'}</t>
+          <t>{'TGG1.POSITION', 'OTGG.TARGETTYPE'}</t>
         </is>
       </c>
     </row>
@@ -17421,12 +17421,12 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'JDT1.Account', 'OACT.AcctName'}</t>
+          <t>{'OACT.AcctName', 'OACT.AcctCode', 'JDT1.Account'}</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'JDT1.Account', 'OACT.AcctName'}</t>
+          <t>{'OACT.AcctName', 'OACT.AcctCode', 'JDT1.Account'}</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -17461,12 +17461,12 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>{'JDT1.DueDate', 'JDT1.Debit', 'JDT1.Credit'}</t>
+          <t>{'JDT1.Credit', 'JDT1.DueDate', 'JDT1.Debit'}</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>{'JDT1.DueDate', 'JDT1.Debit', 'JDT1.Credit'}</t>
+          <t>{'JDT1.Credit', 'JDT1.DueDate', 'JDT1.Debit'}</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -17486,12 +17486,12 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>{'OACT', 'BGT1'}</t>
+          <t>{'BGT1', 'OACT'}</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>{'OACT', 'BGT1'}</t>
+          <t>{'BGT1', 'OACT'}</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -17501,12 +17501,12 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'BGT1.DebLTotal', 'OACT.AcctCode', 'BGT1.AcctCode', 'BGT1.CredLTotal'}</t>
+          <t>{'BGT1.AcctCode', 'OACT.AcctCode', 'BGT1.CredLTotal', 'OACT.AcctName', 'BGT1.DebLTotal'}</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'BGT1.DebLTotal', 'OACT.AcctCode', 'BGT1.AcctCode', 'BGT1.CredLTotal'}</t>
+          <t>{'BGT1.AcctCode', 'OACT.AcctCode', 'BGT1.CredLTotal', 'OACT.AcctName', 'BGT1.DebLTotal'}</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -17541,12 +17541,12 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>{'OACT.CurrTotal', 'OACT.AcctName', 'OACG.Name', 'OACG.AbsId', 'OACT.Category'}</t>
+          <t>{'OACG.AbsId', 'OACG.Name', 'OACT.Category', 'OACT.AcctName', 'OACT.CurrTotal'}</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>{'OACT.CurrTotal', 'OACT.AcctName', 'OACG.Name', 'OACG.AbsId', 'OACT.Category'}</t>
+          <t>{'OACG.AbsId', 'OACG.Name', 'OACT.Category', 'OACT.AcctName', 'OACT.CurrTotal'}</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -17566,12 +17566,12 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>{'OTAX', 'TAX1'}</t>
+          <t>{'TAX1', 'OTAX'}</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>{'OTAX', 'TAX1'}</t>
+          <t>{'TAX1', 'OTAX'}</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -17581,12 +17581,12 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>{'OTAX.AbsEntry', 'TAX1.VatPercent', 'TAX1.AbsEntry', 'OTAX.SrcObjAbs', 'TAX1.TaxCode', 'TAX1.VatSum'}</t>
+          <t>{'OTAX.AbsEntry', 'TAX1.TaxCode', 'TAX1.AbsEntry', 'TAX1.VatPercent', 'OTAX.SrcObjAbs', 'TAX1.VatSum'}</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>{'OTAX.AbsEntry', 'TAX1.VatPercent', 'TAX1.AbsEntry', 'OTAX.SrcObjAbs', 'TAX1.TaxCode', 'TAX1.VatSum'}</t>
+          <t>{'OTAX.AbsEntry', 'TAX1.TaxCode', 'TAX1.AbsEntry', 'TAX1.VatPercent', 'OTAX.SrcObjAbs', 'TAX1.VatSum'}</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>{'ORTT.DATASOURCE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -17726,12 +17726,12 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>{'FRC1', 'OFRC'}</t>
+          <t>{'OFRC', 'FRC1'}</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>{'FRC1', 'OFRC'}</t>
+          <t>{'OFRC', 'FRC1'}</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -17741,12 +17741,12 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>{'FRC1.CatId', 'OFRC.Name', 'OFRC.CatId', 'FRC1.CalMethod3', 'FRC1.CalMethod2', 'FRC1.CalcMethod', 'FRC1.CFWId'}</t>
+          <t>{'FRC1.CFWId', 'OFRC.Name', 'OFRC.CatId', 'FRC1.CalcMethod', 'FRC1.CalMethod3', 'FRC1.CatId', 'FRC1.CalMethod2'}</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>{'FRC1.CatId', 'OFRC.Name', 'OFRC.CatId', 'FRC1.CalMethod3', 'FRC1.CalMethod2', 'FRC1.CalcMethod', 'FRC1.CFWId'}</t>
+          <t>{'FRC1.CFWId', 'OFRC.Name', 'OFRC.CatId', 'FRC1.CalcMethod', 'FRC1.CalMethod3', 'FRC1.CatId', 'FRC1.CalMethod2'}</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -17781,12 +17781,12 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>{'OPRJ.ValidFrom', 'OPRJ.PrjName', 'OPRJ.PrjCode'}</t>
+          <t>{'OPRJ.PrjCode', 'OPRJ.PrjName', 'OPRJ.ValidFrom'}</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>{'OPRJ.ValidFrom', 'OPRJ.PrjName', 'OPRJ.PrjCode'}</t>
+          <t>{'OPRJ.PrjCode', 'OPRJ.PrjName', 'OPRJ.ValidFrom'}</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>{'PMG1.EXPCOSTS', 'PMG1.DSCRIPTION', 'PMG1.START'}</t>
+          <t>{'PMG1.START', 'PMG1.DSCRIPTION', 'PMG1.EXPCOSTS'}</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -17871,7 +17871,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>{'CDIC._KEY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -17886,12 +17886,12 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>{'DAB1', 'ODAB'}</t>
+          <t>{'ODAB', 'DAB1'}</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>{'DAB1', 'ODAB'}</t>
+          <t>{'ODAB', 'DAB1'}</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -17901,12 +17901,12 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'DAB1.DsbEntry', 'ODAB.DashbdCode'}</t>
+          <t>{'ODAB.DashbdCode', 'DAB1.DsbEntry', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'DAB1.DsbEntry', 'ODAB.DashbdCode'}</t>
+          <t>{'ODAB.DashbdCode', 'DAB1.DsbEntry', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -17926,12 +17926,12 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>{'DAB1', 'ODAB'}</t>
+          <t>{'ODAB', 'DAB1'}</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>{'DAB1', 'ODAB'}</t>
+          <t>{'ODAB', 'DAB1'}</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -17941,12 +17941,12 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>{'DAB1.DsbEntry', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdPath', 'ODAB.AbsEntry', 'ODAB.Status', 'ODAB.DashbdName'}</t>
+          <t>{'ODAB.Status', 'DAB1.DsbEntry', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdName', 'ODAB.DashbdPath', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>{'DAB1.DsbEntry', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdPath', 'ODAB.AbsEntry', 'ODAB.Status', 'ODAB.DashbdName'}</t>
+          <t>{'ODAB.Status', 'DAB1.DsbEntry', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdName', 'ODAB.DashbdPath', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -17981,12 +17981,12 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>{'OKPS.FieldsNum', 'OKPS.KpsName', 'OKPS.KpsType', 'OKPS.KpsCode'}</t>
+          <t>{'OKPS.KpsCode', 'OKPS.FieldsNum', 'OKPS.KpsName', 'OKPS.KpsType'}</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>{'OKPS.FieldsNum', 'OKPS.KpsName', 'OKPS.KpsType', 'OKPS.KpsCode'}</t>
+          <t>{'OKPS.KpsCode', 'OKPS.FieldsNum', 'OKPS.KpsName', 'OKPS.KpsType'}</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -18021,12 +18021,12 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResType', 'ORSC.StdCost1', 'ORSC.ResName', 'ORSC.ResCode', 'RSC4.EmpID', 'ORSC.ResGrpCod', 'RSC4.ResCode'}</t>
+          <t>{'ORSC.ResName', 'ORSC.ResType', 'ORSC.ResCode', 'ORSC.StdCost1', 'ORSC.ResGrpCod', 'RSC4.EmpID', 'RSC4.ResCode'}</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResType', 'ORSC.StdCost1', 'ORSC.ResName', 'ORSC.ResCode', 'RSC4.EmpID', 'ORSC.ResGrpCod', 'RSC4.ResCode'}</t>
+          <t>{'ORSC.ResName', 'ORSC.ResType', 'ORSC.ResCode', 'ORSC.StdCost1', 'ORSC.ResGrpCod', 'RSC4.EmpID', 'RSC4.ResCode'}</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>{'ORSC', 'RSC6'}</t>
+          <t>{'RSC6', 'ORSC'}</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -18061,12 +18061,12 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>{'RSC6.WeekDay', 'ORSC.ResCode', 'RSC6.CapFactor1', 'ORSC.ResName', 'RSC6.ResCode'}</t>
+          <t>{'RSC6.WeekDay', 'ORSC.ResName', 'ORSC.ResCode', 'RSC6.CapFactor1', 'RSC6.ResCode'}</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>{'ORSC.ResCode', 'ORSC.ResName'}</t>
+          <t>{'ORSC.ResName', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -18101,12 +18101,12 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>{'PMG2.REMARKS', 'OPMG.NAME', 'OPMG.AbsEntry', 'PMG2.SOLUTION', 'PMG2.AbsEntry'}</t>
+          <t>{'PMG2.REMARKS', 'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.AbsEntry'}</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>{'PMG2.REMARKS', 'OPMG.NAME', 'OPMG.AbsEntry', 'PMG2.SOLUTION', 'PMG2.AbsEntry'}</t>
+          <t>{'PMG2.REMARKS', 'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.AbsEntry'}</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -18141,12 +18141,12 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>{'OCPT.Name', 'CPT1._Left', 'OCPT.AbsEntry', 'CPT1._Right', 'CPT1._Top', 'CPT1._Bottom', 'OCPT._Top', 'CPT1.AbsEntry', 'OCPT._Left'}</t>
+          <t>{'CPT1._Top', 'CPT1._Left', 'OCPT.AbsEntry', 'OCPT.Name', 'CPT1.AbsEntry', 'OCPT._Left', 'CPT1._Bottom', 'OCPT._Top', 'CPT1._Right'}</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>{'OCPT.Name', 'CPT1._Left', 'OCPT.AbsEntry', 'CPT1._Right', 'CPT1._Top', 'CPT1._Bottom', 'OCPT._Top', 'CPT1.AbsEntry', 'OCPT._Left'}</t>
+          <t>{'CPT1._Top', 'CPT1._Left', 'OCPT.AbsEntry', 'OCPT.Name', 'CPT1.AbsEntry', 'OCPT._Left', 'CPT1._Bottom', 'OCPT._Top', 'CPT1._Right'}</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -18181,12 +18181,12 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>{'OBOB.TableName', 'OBOB.DescField'}</t>
+          <t>{'OBOB.DescField', 'OBOB.TableName'}</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>{'OBOB.TableName', 'OBOB.DescField'}</t>
+          <t>{'OBOB.DescField', 'OBOB.TableName'}</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -18206,12 +18206,12 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM'}</t>
+          <t>{'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -18221,12 +18221,12 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'HTM1.teamID', 'OHEM.firstName', 'OHEM.lastName', 'OHTM.name', 'HTM1.empID', 'OHTM.teamID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'HTM1.teamID', 'OHTM.name', 'HTM1.empID', 'OHTM.teamID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -18261,12 +18261,12 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>{'HLD1.Rmrks', 'HLD1.EndDate', 'HLD1.StrDate'}</t>
+          <t>{'HLD1.EndDate', 'HLD1.StrDate', 'HLD1.Rmrks'}</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>{'HLD1.Rmrks', 'HLD1.EndDate', 'HLD1.StrDate'}</t>
+          <t>{'HLD1.EndDate', 'HLD1.StrDate', 'HLD1.Rmrks'}</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -18286,12 +18286,12 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -18301,12 +18301,12 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.empID', 'OHEM.salary', 'HTM1.teamID'}</t>
+          <t>{'HTM1.teamID', 'OHEM.salary', 'OHTM.name', 'HTM1.empID', 'OHTM.teamID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.empID', 'OHEM.salary', 'HTM1.teamID'}</t>
+          <t>{'HTM1.teamID', 'OHEM.salary', 'OHTM.name', 'HTM1.empID', 'OHTM.teamID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -18341,7 +18341,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>{'OHEM.mobile', 'OHEM.pager', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeTel', 'OHEM.officeTel'}</t>
+          <t>{'OHEM.pager', 'OHEM.officeTel', 'OHEM.firstName', 'OHEM.lastName', 'OHEM.homeTel', 'OHEM.mobile'}</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>{'OHEM.LASTNAME', 'OHEM.FIRSTNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>{'OHEM.FNameSP', 'OHEM.firstName', 'OHEM.SurnameSP', 'OHEM.lastName'}</t>
+          <t>{'OHEM.FNameSP', 'OHEM.SurnameSP', 'OHEM.firstName', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>{'OHEM.LASTNAME', 'OHEM.FIRSTNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -18406,12 +18406,12 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>{'OHTY', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTY'}</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>{'OHTY', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTY'}</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -18421,12 +18421,12 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>{'OHEM.type', 'OHTY.name', 'OHEM.lastName', 'OHEM.nChildren', 'OHTY.typeID', 'OHEM.StatusOfE'}</t>
+          <t>{'OHTY.typeID', 'OHEM.lastName', 'OHEM.nChildren', 'OHEM.StatusOfE', 'OHTY.name', 'OHEM.type'}</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>{'OHEM.type', 'OHTY.name', 'OHEM.lastName', 'OHEM.nChildren', 'OHTY.typeID', 'OHEM.StatusOfE'}</t>
+          <t>{'OHTY.typeID', 'OHEM.lastName', 'OHEM.nChildren', 'OHEM.StatusOfE', 'OHTY.name', 'OHEM.type'}</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -18461,12 +18461,12 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>{'OHTY.typeID', 'OHTY.name'}</t>
+          <t>{'OHTY.name', 'OHTY.typeID'}</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>{'OHTY.typeID', 'OHTY.name'}</t>
+          <t>{'OHTY.name', 'OHTY.typeID'}</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -18501,7 +18501,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.HeaInsName', 'OHEM.HeaInsCode', 'OHEM.empID', 'OHEM.HeaInsType'}</t>
+          <t>{'OHEM.HeaInsName', 'OHEM.lastName', 'OHEM.HeaInsCode', 'OHEM.HeaInsType', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>{'OHEM.LASTNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -18566,12 +18566,12 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>{'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM'}</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -18581,12 +18581,12 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.VacCurYear', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'HTM1.teamID', 'OHEM.VacCurYear', 'OHTM.name', 'HTM1.empID', 'OHTM.teamID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.VacCurYear'}</t>
+          <t>{'OHEM.VacCurYear', 'OHTM.name', 'OHTM.teamID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -18606,12 +18606,12 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM'}</t>
+          <t>{'OHEM', 'HTM1'}</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM'}</t>
+          <t>{'OHEM', 'HTM1'}</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -18621,12 +18621,12 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>{'OHEM.CPF', 'HTM1.empID', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHEM.CPF', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>{'OHEM.CPF', 'HTM1.empID', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHEM.CPF', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -18646,7 +18646,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>{'OHTY', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTY'}</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -18661,12 +18661,12 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>{'OHEM.type', 'OHTY.name', 'OHTY.typeID', 'OHEM.MunKey', 'OHEM.InTaxLiabi', 'OHEM.TaxClass'}</t>
+          <t>{'OHEM.MunKey', 'OHEM.TaxClass', 'OHTY.typeID', 'OHEM.InTaxLiabi', 'OHTY.name', 'OHEM.type'}</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>{'OHTY.typeID', 'OHTY.name'}</t>
+          <t>{'OHTY.name', 'OHTY.typeID'}</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -18686,7 +18686,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>{'HEM6', 'OHEM'}</t>
+          <t>{'OHEM', 'HEM6'}</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -18701,12 +18701,12 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HEM6.roleID', 'OHEM.salary', 'HEM6.empID'}</t>
+          <t>{'HEM6.empID', 'HEM6.roleID', 'OHEM.salary', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HEM6.roleID', 'HEM6.empID'}</t>
+          <t>{'HEM6.empID', 'HEM6.roleID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -18741,17 +18741,17 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>{'OHEM.brthCountr', 'OHEM.birthDate', 'OHEM.homeCounty', 'OHEM.homeCity', 'OHEM.homeCountr', 'OHEM.jobTitle'}</t>
+          <t>{'OHEM.brthCountr', 'OHEM.homeCountr', 'OHEM.birthDate', 'OHEM.homeCity', 'OHEM.homeCounty', 'OHEM.jobTitle'}</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>{'OHEM.homeCountr', 'OHEM.brthCountr', 'OHEM.homeCounty'}</t>
+          <t>{'OHEM.brthCountr', 'OHEM.homeCounty', 'OHEM.homeCountr'}</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>{'OHEM.JOBTITLE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -18791,7 +18791,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>{'OHEM.LASTNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHEM.workCity', 'OHEM.homeCity', 'OHEM.emplCost'}</t>
+          <t>{'OHEM.workCity', 'OHEM.firstName', 'OHEM.homeCity', 'OHEM.emplCost', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -18846,12 +18846,12 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM'}</t>
+          <t>{'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -18861,12 +18861,12 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.MunKey', 'OHEM.homeTel', 'OHEM.homeCity', 'HTM1.empID', 'OHEM.workCity', 'HTM1.teamID', 'OHEM.officeTel'}</t>
+          <t>{'OHEM.officeTel', 'OHEM.homeCity', 'OHTM.name', 'HTM1.empID', 'OHEM.homeTel', 'OHEM.empID', 'OHEM.MunKey', 'OHEM.workCity', 'HTM1.teamID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.teamID', 'OHTM.name', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'HTM1.teamID', 'OHTM.name', 'HTM1.empID', 'OHTM.teamID', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -18886,12 +18886,12 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
+          <t>{'OHEM', 'OHTM', 'HTM1'}</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -18901,12 +18901,12 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'OHTM.name', 'OHEM.StreetNoW', 'OHEM.StatusOfP', 'HTM1.empID', 'OHEM.StreetNoH', 'OHEM.StatusOfE', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHEM.StreetNoH', 'OHEM.StatusOfE', 'OHTM.name', 'HTM1.empID', 'OHEM.StatusOfP', 'OHEM.empID', 'OHEM.StreetNoW', 'HTM1.teamID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>{'OHTM.teamID', 'OHTM.name', 'OHEM.StreetNoW', 'OHEM.StatusOfP', 'HTM1.empID', 'OHEM.StreetNoH', 'OHEM.StatusOfE', 'OHEM.empID', 'HTM1.teamID'}</t>
+          <t>{'OHEM.StreetNoH', 'OHEM.StatusOfE', 'OHTM.name', 'HTM1.empID', 'OHEM.StatusOfP', 'OHEM.empID', 'OHEM.StreetNoW', 'HTM1.teamID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -18941,12 +18941,12 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>{'OHEM.ExemptCurr', 'OHEM.TaxOName', 'OHEM.PymMeth', 'OHEM.AddiCurr'}</t>
+          <t>{'OHEM.PymMeth', 'OHEM.AddiCurr', 'OHEM.TaxOName', 'OHEM.ExemptCurr'}</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>{'OHEM.ExemptCurr', 'OHEM.TaxOName', 'OHEM.PymMeth', 'OHEM.AddiCurr'}</t>
+          <t>{'OHEM.PymMeth', 'OHEM.AddiCurr', 'OHEM.TaxOName', 'OHEM.ExemptCurr'}</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -18981,12 +18981,12 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>{'OHEM.homeStreet', 'OHEM.lastName', 'OHEM.martStatus', 'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.homeZip'}</t>
+          <t>{'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.homeZip', 'OHEM.homeStreet', 'OHEM.martStatus', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>{'OHEM.homeStreet', 'OHEM.lastName', 'OHEM.martStatus', 'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.homeZip'}</t>
+          <t>{'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.homeZip', 'OHEM.homeStreet', 'OHEM.martStatus', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
@@ -19021,12 +19021,12 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>{'OITM.IsCommited', 'OITM.OnOrder', 'OITM.ItemName', 'OITM.OnHand'}</t>
+          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>{'OITM.IsCommited', 'OITM.OnOrder', 'OITM.ItemName', 'OITM.OnHand'}</t>
+          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -19061,12 +19061,12 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>{'ITM1.Price', 'OITM.IsCommited', 'OITM.ItemCode', 'OITM.ItemName', 'ITM1.ItemCode'}</t>
+          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM1.Price', 'ITM1.ItemCode', 'OITM.IsCommited'}</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>{'ITM1.Price', 'OITM.IsCommited', 'OITM.ItemCode', 'OITM.ItemName', 'ITM1.ItemCode'}</t>
+          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM1.Price', 'ITM1.ItemCode', 'OITM.IsCommited'}</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
@@ -19101,17 +19101,17 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>{'OITM.Consig', 'ITM2.ItemCode', 'OITM.LastPurPrc', 'ITM2.VendorCode', 'OITM.ItemName', 'OITM.ItemCode'}</t>
+          <t>{'OITM.Consig', 'OITM.LastPurPrc', 'OITM.ItemCode', 'ITM2.VendorCode', 'OITM.ItemName', 'ITM2.ItemCode'}</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>{'OITM.Consig', 'OITM.ItemCode', 'OITM.ItemName', 'OITM.LastPurPrc'}</t>
+          <t>{'OITM.Consig', 'OITM.ItemCode', 'OITM.LastPurPrc', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>{'ITM2.VENDORCODE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -19141,12 +19141,12 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>{'ITM4.Length1', 'ITM4.Height1', 'ITM4.QtyPerPack', 'ITM4.Volume', 'OITM.ItemName', 'ITM4.Width1', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
+          <t>{'ITM4.Width1', 'OITM.ItemCode', 'ITM4.ItemCode', 'ITM4.Length1', 'ITM4.Height1', 'ITM4.Volume', 'ITM4.QtyPerPack', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>{'ITM4.Length1', 'ITM4.Height1', 'ITM4.QtyPerPack', 'ITM4.Volume', 'OITM.ItemName', 'ITM4.Width1', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
+          <t>{'ITM4.Width1', 'OITM.ItemCode', 'ITM4.ItemCode', 'ITM4.Length1', 'ITM4.Height1', 'ITM4.Volume', 'ITM4.QtyPerPack', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -19181,12 +19181,12 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>{'ITM7.RemainDays', 'ITM7.DprArea', 'ITM7.RemainLife', 'ITM7.UsefulLife'}</t>
+          <t>{'ITM7.UsefulLife', 'ITM7.RemainDays', 'ITM7.RemainLife', 'ITM7.DprArea'}</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>{'ITM7.RemainDays', 'ITM7.DprArea', 'ITM7.RemainLife', 'ITM7.UsefulLife'}</t>
+          <t>{'ITM7.UsefulLife', 'ITM7.RemainDays', 'ITM7.RemainLife', 'ITM7.DprArea'}</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -19246,12 +19246,12 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>{'OBCD', 'OITM'}</t>
+          <t>{'OITM', 'OBCD'}</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>{'OBCD', 'OITM'}</t>
+          <t>{'OITM', 'OBCD'}</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -19301,12 +19301,12 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>{'OBFC.UpdateDate', 'OBFC.DispName', 'OBFC.Activated', 'OBFC.DataSource'}</t>
+          <t>{'OBFC.Activated', 'OBFC.UpdateDate', 'OBFC.DispName', 'OBFC.DataSource'}</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>{'OBFC.UpdateDate', 'OBFC.DispName', 'OBFC.Activated', 'OBFC.DataSource'}</t>
+          <t>{'OBFC.Activated', 'OBFC.UpdateDate', 'OBFC.DispName', 'OBFC.DataSource'}</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -19341,12 +19341,12 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
@@ -19366,12 +19366,12 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>{'ITM4', 'OITB', 'OITM'}</t>
+          <t>{'OITB', 'ITM4', 'OITM'}</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>{'ITM4', 'OITB', 'OITM'}</t>
+          <t>{'OITB', 'ITM4', 'OITM'}</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -19381,12 +19381,12 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'ITM4.ItemCode', 'OITB.ItmsGrpCod', 'OITM.ItemCode', 'ITM4.Volume', 'OITB.ItmsGrpNam'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITM.ItemCode', 'ITM4.ItemCode', 'OITB.ItmsGrpNam', 'ITM4.Volume', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'ITM4.ItemCode', 'OITB.ItmsGrpCod', 'OITM.ItemCode', 'ITM4.Volume', 'OITB.ItmsGrpNam'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITM.ItemCode', 'ITM4.ItemCode', 'OITB.ItmsGrpNam', 'ITM4.Volume', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
@@ -19406,12 +19406,12 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM1'}</t>
+          <t>{'ECM1', 'OECM'}</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM1'}</t>
+          <t>{'ECM1', 'OECM'}</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -19421,12 +19421,12 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>{'ECM1.Code', 'OECM.Code', 'ECM1.ParamName', 'ECM1.ParamPrms', 'OECM.Descr'}</t>
+          <t>{'ECM1.ParamPrms', 'OECM.Descr', 'OECM.Code', 'ECM1.ParamName', 'ECM1.Code'}</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>{'ECM1.Code', 'OECM.Code', 'ECM1.ParamName', 'ECM1.ParamPrms', 'OECM.Descr'}</t>
+          <t>{'ECM1.ParamPrms', 'OECM.Descr', 'OECM.Code', 'ECM1.ParamName', 'ECM1.Code'}</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -19461,7 +19461,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>{'ECM4.FieldXPath', 'OECM.Descr', 'ECM4.ObjXPath', 'OECM.Code', 'ECM4.Code'}</t>
+          <t>{'OECM.Descr', 'ECM4.FieldXPath', 'OECM.Code', 'ECM4.Code', 'ECM4.ObjXPath'}</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -19541,12 +19541,12 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>{'OQAG.AUTHGRPCD', 'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.AUTHGRPN', 'OQAG.LogInstanc'}</t>
+          <t>{'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc', 'OQAG.AUTHGRPCD', 'OQAG.UpdateDate'}</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>{'OQAG.AUTHGRPCD', 'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.AUTHGRPN', 'OQAG.LogInstanc'}</t>
+          <t>{'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc', 'OQAG.AUTHGRPCD', 'OQAG.UpdateDate'}</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -19621,7 +19621,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>{'RDOC.EmailFont', 'RDOC.TypeCode', 'RDOC.ScreenFont'}</t>
+          <t>{'RDOC.ScreenFont', 'RDOC.TypeCode', 'RDOC.EmailFont'}</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -19631,7 +19631,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>{'RDOC.EMAILFONT'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -19646,7 +19646,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>{'RDOC', 'RTYP'}</t>
+          <t>{'RTYP', 'RDOC'}</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -19661,12 +19661,12 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>{'RDOC.DocCode', 'RTYP.DEFLT_REP', 'RTYP.NAME', 'RTYP.CODE'}</t>
+          <t>{'RDOC.DocCode', 'RTYP.CODE', 'RTYP.NAME', 'RTYP.DEFLT_REP'}</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>{'RTYP.CODE', 'RTYP.DEFLT_REP', 'RTYP.NAME'}</t>
+          <t>{'RTYP.NAME', 'RTYP.CODE', 'RTYP.DEFLT_REP'}</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>{'RDOC', 'RITM'}</t>
+          <t>{'RITM', 'RDOC'}</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -19701,7 +19701,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>{'RITM.DocCode', 'RDOC.DocCode', 'RDOC.TypeCode', 'RDOC.DocName'}</t>
+          <t>{'RDOC.DocCode', 'RDOC.TypeCode', 'RDOC.DocName', 'RITM.DocCode'}</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>{'RDOC.TYPECODE'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -19741,12 +19741,12 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>{'RDOC.NumRepArs', 'RDOC.SwpInEmail', 'RDOC.ExtOnErr'}</t>
+          <t>{'RDOC.ExtOnErr', 'RDOC.SwpInEmail', 'RDOC.NumRepArs'}</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>{'RDOC.NumRepArs', 'RDOC.SwpInEmail', 'RDOC.ExtOnErr'}</t>
+          <t>{'RDOC.ExtOnErr', 'RDOC.SwpInEmail', 'RDOC.NumRepArs'}</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -19781,12 +19781,12 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>{'RITM.MrkrRed', 'RITM.FGBlue', 'RITM.BGRed', 'RITM.MrkrGreen', 'RITM.BGBlue', 'RITM.Height', 'RITM.MrkrBlue', 'RITM.BrdrBlue', 'RITM.BGGreen', 'RITM.FGRed', 'RITM.BrdrRed', 'RITM.FGGreen', 'RITM.BrdrGreen'}</t>
+          <t>{'RITM.Height', 'RITM.MrkrGreen', 'RITM.BGRed', 'RITM.BrdrRed', 'RITM.FGGreen', 'RITM.BGBlue', 'RITM.BrdrBlue', 'RITM.MrkrRed', 'RITM.MrkrBlue', 'RITM.FGRed', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.BrdrGreen'}</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>{'RITM.MrkrRed', 'RITM.FGBlue', 'RITM.BGRed', 'RITM.MrkrGreen', 'RITM.BGBlue', 'RITM.Height', 'RITM.MrkrBlue', 'RITM.BrdrBlue', 'RITM.BGGreen', 'RITM.FGRed', 'RITM.BrdrRed', 'RITM.FGGreen', 'RITM.BrdrGreen'}</t>
+          <t>{'RITM.Height', 'RITM.MrkrGreen', 'RITM.BGRed', 'RITM.BrdrRed', 'RITM.FGGreen', 'RITM.BGBlue', 'RITM.BrdrBlue', 'RITM.MrkrRed', 'RITM.MrkrBlue', 'RITM.FGRed', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.BrdrGreen'}</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -19821,12 +19821,12 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>{'OOPR.CardGroup', 'OOPR.MaxSumLoc'}</t>
+          <t>{'OOPR.MaxSumLoc', 'OOPR.CardGroup'}</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>{'OOPR.CardGroup', 'OOPR.MaxSumLoc'}</t>
+          <t>{'OOPR.MaxSumLoc', 'OOPR.CardGroup'}</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -19861,12 +19861,12 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfL', 'OOPR.Status', 'OOPR.PrcnProf', 'OOPR.SumProfS'}</t>
+          <t>{'OOPR.SumProfS', 'OOPR.Status', 'OOPR.PrcnProf', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfL', 'OOPR.Status', 'OOPR.PrcnProf', 'OOPR.SumProfS'}</t>
+          <t>{'OOPR.SumProfS', 'OOPR.Status', 'OOPR.PrcnProf', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OOPR.CardCode', 'OPR1.ClosePrcnt', 'OOPR.OpprId'}</t>
+          <t>{'OPR1.OpprId', 'OOPR.OpprId', 'OOPR.CardCode', 'OPR1.ClosePrcnt'}</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -19941,12 +19941,12 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>{'OPR1.WtSumSys', 'OPR1.WtSumLoc', 'OPR1.CloseDate'}</t>
+          <t>{'OPR1.WtSumLoc', 'OPR1.WtSumSys', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>{'OPR1.WtSumSys', 'OPR1.WtSumLoc', 'OPR1.CloseDate'}</t>
+          <t>{'OPR1.WtSumLoc', 'OPR1.WtSumSys', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -19981,12 +19981,12 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>{'OPRC.Balance', 'OPRC.Active', 'OPRC.ValidFrom', 'OPRC.PrcCode', 'OPRC.DataSource', 'OPRC.PrcName'}</t>
+          <t>{'OPRC.DataSource', 'OPRC.Active', 'OPRC.ValidFrom', 'OPRC.Balance', 'OPRC.PrcName', 'OPRC.PrcCode'}</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>{'OPRC.Balance', 'OPRC.Active', 'OPRC.ValidFrom', 'OPRC.PrcCode', 'OPRC.DataSource', 'OPRC.PrcName'}</t>
+          <t>{'OPRC.DataSource', 'OPRC.Active', 'OPRC.ValidFrom', 'OPRC.Balance', 'OPRC.PrcName', 'OPRC.PrcCode'}</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -20021,12 +20021,12 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.RealProfS', 'OOPR.CloPrcnt', 'OOPR.RealSumSys', 'OOPR.CardName'}</t>
+          <t>{'OOPR.RealProfS', 'OOPR.CardName', 'OOPR.RealSumSys', 'OOPR.RealSumLoc', 'OOPR.CloPrcnt', 'OOPR.RealProfL'}</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.RealProfS', 'OOPR.CloPrcnt', 'OOPR.RealSumSys', 'OOPR.CardName'}</t>
+          <t>{'OOPR.RealProfS', 'OOPR.CardName', 'OOPR.RealSumSys', 'OOPR.RealSumLoc', 'OOPR.CloPrcnt', 'OOPR.RealProfL'}</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -20061,12 +20061,12 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>{'OPR1.ClosePrcnt', 'OPR1.OpenDate', 'OPR1.CloseDate'}</t>
+          <t>{'OPR1.OpenDate', 'OPR1.ClosePrcnt', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>{'OPR1.ClosePrcnt', 'OPR1.OpenDate', 'OPR1.CloseDate'}</t>
+          <t>{'OPR1.OpenDate', 'OPR1.ClosePrcnt', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -20101,12 +20101,12 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
+          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
+          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -20141,12 +20141,12 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>{'OPRC.DimCode', 'OPRC.PrcName'}</t>
+          <t>{'OPRC.PrcName', 'OPRC.DimCode'}</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>{'OPRC.DimCode', 'OPRC.PrcName'}</t>
+          <t>{'OPRC.PrcName', 'OPRC.DimCode'}</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrName', 'OCTR.ContractID', 'OCTR.Renewal'}</t>
+          <t>{'OCTR.ContractID', 'OCTR.CstmrName', 'OCTR.Renewal'}</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>{'OCTR.CSTMRNAME'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -20301,12 +20301,12 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>{'OINS.state', 'OINS.country'}</t>
+          <t>{'OINS.country', 'OINS.state'}</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>{'OINS.state', 'OINS.country'}</t>
+          <t>{'OINS.country', 'OINS.state'}</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -20341,12 +20341,12 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>{'OINS.itemName', 'OINS.itemCode'}</t>
+          <t>{'OINS.itemCode', 'OINS.itemName'}</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>{'OINS.itemName', 'OINS.itemCode'}</t>
+          <t>{'OINS.itemCode', 'OINS.itemName'}</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
@@ -20381,7 +20381,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>{'OQUE.email', 'OQUE.descript', 'OQUE.manager'}</t>
+          <t>{'OQUE.manager', 'OQUE.email', 'OQUE.descript'}</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -20421,7 +20421,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>{'OSCL.custmrName', 'OSCL.customer', 'OSCL.priority'}</t>
+          <t>{'OSCL.customer', 'OSCL.custmrName', 'OSCL.priority'}</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>{'OSCL.PRIORITY'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -20446,12 +20446,12 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>{'OSCL', 'OSCO'}</t>
+          <t>{'OSCO', 'OSCL'}</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>{'OSCL', 'OSCO'}</t>
+          <t>{'OSCO', 'OSCL'}</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -20461,12 +20461,12 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>{'OSCL.resolOnDat', 'OSCL.respOnDate', 'OSCL.AssignDate', 'OSCO.originID', 'OSCL.origin', 'OSCO.Name'}</t>
+          <t>{'OSCL.origin', 'OSCO.originID', 'OSCL.resolOnDat', 'OSCO.Name', 'OSCL.AssignDate', 'OSCL.respOnDate'}</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>{'OSCL.resolOnDat', 'OSCL.respOnDate', 'OSCL.AssignDate', 'OSCO.originID', 'OSCL.origin', 'OSCO.Name'}</t>
+          <t>{'OSCL.origin', 'OSCO.originID', 'OSCL.resolOnDat', 'OSCO.Name', 'OSCL.AssignDate', 'OSCL.respOnDate'}</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -20501,12 +20501,12 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>{'OSCL.custmrName', 'OSCL.BPShipAddr', 'OSCL.BPBillAddr', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPE_Mail', 'OSCL.BPBillAddr', 'OSCL.custmrName', 'OSCL.BPShipAddr'}</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>{'OSCL.custmrName', 'OSCL.BPShipAddr', 'OSCL.BPBillAddr', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPE_Mail', 'OSCL.BPBillAddr', 'OSCL.custmrName', 'OSCL.BPShipAddr'}</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -20526,12 +20526,12 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>{'OSCL', 'OCTR'}</t>
+          <t>{'OCTR', 'OSCL'}</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>{'OSCL', 'OCTR'}</t>
+          <t>{'OCTR', 'OSCL'}</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -20541,12 +20541,12 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>{'OSCL.customer', 'OCTR.CstmrName', 'OCTR.CstmrCode'}</t>
+          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>{'OSCL.customer', 'OCTR.CstmrName', 'OCTR.CstmrCode'}</t>
+          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -20581,17 +20581,17 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>{'OINS.internalSN', 'OINS.custmrName', 'OINS.itemCode'}</t>
+          <t>{'OINS.custmrName', 'OINS.internalSN', 'OINS.itemCode'}</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>{'OINS.internalSN', 'OINS.custmrName', 'OINS.itemCode'}</t>
+          <t>{'OINS.custmrName', 'OINS.internalSN', 'OINS.itemCode'}</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>{'OINS.CUSTMRNAME', 'OINS.ITEMCODE'}</t>
+          <t>{'OINS.ITEMCODE', 'OINS.CUSTMRNAME'}</t>
         </is>
       </c>
     </row>
